--- a/Fluxo de Caixa Manografia - Michele Geus.xlsx
+++ b/Fluxo de Caixa Manografia - Michele Geus.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliente\Documents\Pós Graduação\Mestrado - Strictu Sensu\Mestrato Fitotecnia Usp 2023\Disciplinas\LCF5900 - Processamento Reproduzível e Aberto de Dados Científicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonca\Downloads\MONOGRAFIA VF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="579" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="579" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Custos Implantação" sheetId="8" r:id="rId1"/>
@@ -32,10 +32,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Cliente</author>
+    <author>Michele Gonçalves de Almeida Aguiar</author>
   </authors>
   <commentList>
-    <comment ref="B21" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,10 +43,20 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>28 anos
-64 hectres</t>
+          <t>Michele Gonçalves de Almeida Aguiar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+referente aos custos de manutenção + custo de implantação do terceiro ciclo
+</t>
         </r>
       </text>
     </comment>
@@ -89,43 +99,8 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Michele Gonçalves de Almeida Aguiar</author>
-  </authors>
-  <commentList>
-    <comment ref="A6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Michele Gonçalves de Almeida Aguiar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-referente aos custos de manutenção + custo de implantação do terceiro ciclo
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="133">
   <si>
     <t>Unidade</t>
   </si>
@@ -274,6 +249,9 @@
     <t>2º ano</t>
   </si>
   <si>
+    <t>3º ao 7º ano</t>
+  </si>
+  <si>
     <t>8º ano</t>
   </si>
   <si>
@@ -340,6 +318,9 @@
     <t>4ªCICLO 28</t>
   </si>
   <si>
+    <t>10º ao 14º ano</t>
+  </si>
+  <si>
     <t>1ª Cilo Produtivo</t>
   </si>
   <si>
@@ -370,12 +351,18 @@
     <t>16º ano</t>
   </si>
   <si>
+    <t>17º ao 21º ano</t>
+  </si>
+  <si>
     <t>22º ano</t>
   </si>
   <si>
     <t>23º ano</t>
   </si>
   <si>
+    <t>24º ao 28º ano</t>
+  </si>
+  <si>
     <t>Imposto</t>
   </si>
   <si>
@@ -512,66 +499,6 @@
   </si>
   <si>
     <t>ORDEM CUSTO</t>
-  </si>
-  <si>
-    <t>3º ano</t>
-  </si>
-  <si>
-    <t>4º ano</t>
-  </si>
-  <si>
-    <t>5º ano</t>
-  </si>
-  <si>
-    <t>6º ano</t>
-  </si>
-  <si>
-    <t>7º ano</t>
-  </si>
-  <si>
-    <t>10º ano</t>
-  </si>
-  <si>
-    <t>11º ano</t>
-  </si>
-  <si>
-    <t>12º ano</t>
-  </si>
-  <si>
-    <t>13º ano</t>
-  </si>
-  <si>
-    <t>14º ano</t>
-  </si>
-  <si>
-    <t>17º ano</t>
-  </si>
-  <si>
-    <t>18º ano</t>
-  </si>
-  <si>
-    <t>19º ano</t>
-  </si>
-  <si>
-    <t>20º ano</t>
-  </si>
-  <si>
-    <t>21º ano</t>
-  </si>
-  <si>
-    <t>24º ano</t>
-  </si>
-  <si>
-    <t>25º ano</t>
-  </si>
-  <si>
-    <t>26º ano</t>
-  </si>
-  <si>
-    <t>27º ano</t>
-  </si>
-  <si>
-    <t>28º ano</t>
   </si>
 </sst>
 </file>
@@ -586,7 +513,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,13 +561,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="22">
@@ -894,7 +814,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1036,19 +956,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1073,12 +980,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1092,6 +993,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1154,11 +1058,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1169,13 +1070,19 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1234,7 +1141,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="238125" y="4012406"/>
+          <a:off x="238125" y="4191000"/>
           <a:ext cx="4714875" cy="3421360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1633,7 +1540,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,39 +1557,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="102" t="s">
+      <c r="C2" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="101" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="101"/>
+      <c r="E2" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="95"/>
+      <c r="G2" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="96"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1696,19 +1603,19 @@
         <v>4</v>
       </c>
       <c r="I3" s="72" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J3" s="72" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K3" s="72" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>16</v>
@@ -1777,10 +1684,10 @@
         <v>0.49536035564265329</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1830,7 +1737,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="78">
         <v>190</v>
@@ -2012,7 +1919,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="78">
         <v>1780</v>
@@ -2450,7 +2357,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -2462,7 +2369,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="25" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
@@ -2500,11 +2407,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2517,507 +2424,251 @@
     <col min="6" max="6" width="14.85546875" style="42" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="42" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="42" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.28515625" style="42" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" style="42" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" style="42" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="42" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="42" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="17.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16" style="42" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" style="42" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" style="42" customWidth="1"/>
+    <col min="19" max="19" width="16" style="42" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="17.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16" style="42" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" style="42" customWidth="1"/>
-    <col min="27" max="27" width="16" style="42" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.85546875" style="42" customWidth="1"/>
-    <col min="29" max="29" width="16" style="42" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.85546875" style="42" customWidth="1"/>
-    <col min="31" max="31" width="17.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16" style="42" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16" style="42" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.85546875" style="42" customWidth="1"/>
-    <col min="39" max="39" width="16" style="42" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.85546875" style="42" customWidth="1"/>
-    <col min="41" max="41" width="16" style="42" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.85546875" style="42" customWidth="1"/>
-    <col min="43" max="43" width="16" style="42" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.85546875" style="42" customWidth="1"/>
-    <col min="45" max="47" width="17.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16" style="42" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16" style="42" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.85546875" style="42" customWidth="1"/>
-    <col min="53" max="53" width="16" style="42" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.85546875" style="42" customWidth="1"/>
-    <col min="55" max="55" width="16" style="42" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.85546875" style="42" customWidth="1"/>
-    <col min="57" max="57" width="16" style="42" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.85546875" style="42" customWidth="1"/>
-    <col min="59" max="59" width="17.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="19.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="21.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="15.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="17.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="65" max="16384" width="9.140625" style="42"/>
+    <col min="26" max="26" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="15.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="110"/>
-      <c r="AJ1" s="110"/>
-      <c r="AK1" s="110"/>
-      <c r="AL1" s="110"/>
-      <c r="AM1" s="110"/>
-      <c r="AN1" s="110"/>
-      <c r="AO1" s="110"/>
-      <c r="AP1" s="110"/>
-      <c r="AQ1" s="110"/>
-      <c r="AR1" s="110"/>
-      <c r="AS1" s="110"/>
-      <c r="AT1" s="110"/>
-      <c r="AU1" s="110"/>
-      <c r="AV1" s="110"/>
-      <c r="AW1" s="110"/>
-      <c r="AX1" s="110"/>
-      <c r="AY1" s="110"/>
-      <c r="AZ1" s="110"/>
-      <c r="BA1" s="110"/>
-      <c r="BB1" s="110"/>
-      <c r="BC1" s="110"/>
-      <c r="BD1" s="110"/>
-      <c r="BE1" s="110"/>
-      <c r="BF1" s="110"/>
-      <c r="BG1" s="110"/>
-    </row>
-    <row r="2" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+    </row>
+    <row r="2" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="107" t="s">
+      <c r="B2" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="111" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="112" t="s">
+      <c r="D2" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="113" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG2" s="114"/>
-      <c r="AH2" s="114"/>
-      <c r="AI2" s="114"/>
-      <c r="AJ2" s="114"/>
-      <c r="AK2" s="114"/>
-      <c r="AL2" s="114"/>
-      <c r="AM2" s="114"/>
-      <c r="AN2" s="114"/>
-      <c r="AO2" s="114"/>
-      <c r="AP2" s="114"/>
-      <c r="AQ2" s="114"/>
-      <c r="AR2" s="114"/>
-      <c r="AS2" s="114"/>
-      <c r="AT2" s="115" t="s">
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="AU2" s="116"/>
-      <c r="AV2" s="116"/>
-      <c r="AW2" s="116"/>
-      <c r="AX2" s="116"/>
-      <c r="AY2" s="116"/>
-      <c r="AZ2" s="116"/>
-      <c r="BA2" s="116"/>
-      <c r="BB2" s="116"/>
-      <c r="BC2" s="116"/>
-      <c r="BD2" s="116"/>
-      <c r="BE2" s="116"/>
-      <c r="BF2" s="116"/>
-      <c r="BG2" s="116"/>
-    </row>
-    <row r="3" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107" t="s">
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+    </row>
+    <row r="3" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107" t="s">
+      <c r="E3" s="102"/>
+      <c r="F3" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="108" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="109"/>
-      <c r="J3" s="108" t="s">
-        <v>130</v>
-      </c>
-      <c r="K3" s="109"/>
-      <c r="L3" s="108" t="s">
-        <v>131</v>
-      </c>
-      <c r="M3" s="109"/>
-      <c r="N3" s="108" t="s">
-        <v>132</v>
-      </c>
-      <c r="O3" s="109"/>
-      <c r="P3" s="108" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="107" t="s">
+      <c r="G3" s="102"/>
+      <c r="H3" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107" t="s">
+      <c r="I3" s="102"/>
+      <c r="J3" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107" t="s">
-        <v>134</v>
-      </c>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="107" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI3" s="107"/>
-      <c r="AJ3" s="107" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK3" s="107"/>
-      <c r="AL3" s="107" t="s">
-        <v>140</v>
-      </c>
-      <c r="AM3" s="107"/>
-      <c r="AN3" s="107" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO3" s="107"/>
-      <c r="AP3" s="107" t="s">
-        <v>142</v>
-      </c>
-      <c r="AQ3" s="107"/>
-      <c r="AR3" s="107" t="s">
-        <v>143</v>
-      </c>
-      <c r="AS3" s="107"/>
-      <c r="AT3" s="107" t="s">
+      <c r="K3" s="102"/>
+      <c r="L3" s="102" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="AU3" s="107"/>
-      <c r="AV3" s="107" t="s">
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="AW3" s="107"/>
-      <c r="AX3" s="107" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY3" s="107"/>
-      <c r="AZ3" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="BA3" s="107"/>
-      <c r="BB3" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC3" s="107"/>
-      <c r="BD3" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE3" s="107"/>
-      <c r="BF3" s="107" t="s">
-        <v>148</v>
-      </c>
-      <c r="BG3" s="107"/>
-    </row>
-    <row r="4" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102" t="s">
+        <v>84</v>
+      </c>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA3" s="102"/>
+    </row>
+    <row r="4" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="37" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="95" t="s">
+      <c r="I4" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="95" t="s">
+      <c r="K4" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="95" t="s">
+      <c r="M4" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="95" t="s">
+      <c r="O4" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="37" t="s">
         <v>1</v>
       </c>
       <c r="Q4" s="37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R4" s="37" t="s">
         <v>1</v>
       </c>
       <c r="S4" s="37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T4" s="37" t="s">
         <v>1</v>
       </c>
       <c r="U4" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="V4" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="W4" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="X4" s="98" t="s">
+      <c r="W4" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="Y4" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z4" s="98" t="s">
+      <c r="Y4" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AA4" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB4" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD4" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF4" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH4" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ4" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL4" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN4" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP4" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR4" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT4" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV4" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX4" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ4" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB4" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD4" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF4" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG4" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="BI4" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="BJ4" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK4" s="94" t="s">
-        <v>127</v>
-      </c>
-      <c r="BL4" s="94" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="AA4" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB4" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC4" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD4" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE4" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF4" s="94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>16</v>
@@ -3041,112 +2692,89 @@
         <v>3892.72</v>
       </c>
       <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="I5" s="45">
+        <f>C5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="38">
+        <v>57</v>
+      </c>
+      <c r="K5" s="45">
+        <f>C5*J5</f>
+        <v>11678.16</v>
+      </c>
+      <c r="L5" s="38">
+        <v>19</v>
+      </c>
+      <c r="M5" s="45">
+        <f>C5*L5</f>
+        <v>3892.72</v>
+      </c>
       <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
+      <c r="O5" s="45">
+        <f>C5*N5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="38">
+        <f>38+19</f>
+        <v>57</v>
+      </c>
       <c r="Q5" s="45">
-        <f>C5*H5</f>
-        <v>0</v>
+        <f>C5*P5</f>
+        <v>11678.16</v>
       </c>
       <c r="R5" s="38">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="S5" s="45">
         <f>C5*R5</f>
-        <v>11678.16</v>
-      </c>
-      <c r="T5" s="38">
-        <v>19</v>
-      </c>
+        <v>3892.72</v>
+      </c>
+      <c r="T5" s="38"/>
       <c r="U5" s="45">
         <f>C5*T5</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="38">
+        <v>57</v>
+      </c>
+      <c r="W5" s="45">
+        <f>V5*C5</f>
+        <v>11678.16</v>
+      </c>
+      <c r="X5" s="38">
+        <v>19</v>
+      </c>
+      <c r="Y5" s="45">
+        <f>X5*C5</f>
         <v>3892.72</v>
       </c>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
       <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38">
-        <f>38+19</f>
-        <v>57</v>
-      </c>
-      <c r="AG5" s="45">
-        <f t="shared" ref="AG5:AG18" si="0">C5*AF5</f>
-        <v>11678.16</v>
-      </c>
-      <c r="AH5" s="38">
-        <v>19</v>
-      </c>
-      <c r="AI5" s="45">
-        <f t="shared" ref="AI5:AI16" si="1">C5*AH5</f>
-        <v>3892.72</v>
-      </c>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="44"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="44"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="38">
-        <v>57</v>
-      </c>
-      <c r="AU5" s="45">
-        <f t="shared" ref="AU5:AU18" si="2">AT5*C5</f>
-        <v>11678.16</v>
-      </c>
-      <c r="AV5" s="38">
-        <v>19</v>
-      </c>
-      <c r="AW5" s="45">
-        <f t="shared" ref="AW5:AW16" si="3">AV5*C5</f>
-        <v>3892.72</v>
-      </c>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="45">
-        <f>SUM(E5+G5+I5+K5+M5+O5+Q5+S5+U5+W5+Y5+AA5+AC5+AE5+AG5+AI5+AK5+AM5+AO5+AQ5+AS5+AU5+AW5+AY5+BA5+BC5+BE5+BG5)</f>
+      <c r="AA5" s="45">
+        <f>Z5*C5</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="45">
+        <f>E5+G5+I5+K5+M5+O5+Q5+S5+U5+W5+Y5+AA5</f>
         <v>62283.520000000004</v>
       </c>
-      <c r="BI5" s="45">
-        <f>BH5*$BI$19</f>
+      <c r="AC5" s="45">
+        <f>AB5*$AC$19</f>
         <v>6228352</v>
       </c>
-      <c r="BJ5" s="46">
-        <f>BI5/$BH$19</f>
-        <v>1.9798240150101905</v>
-      </c>
-      <c r="BK5" s="104">
-        <f>SUM(BJ5:BJ6)</f>
-        <v>2.3663574033370529</v>
-      </c>
-      <c r="BL5" s="104">
+      <c r="AD5" s="46">
+        <f>AC5/$AB$19</f>
+        <v>1.97982401501019</v>
+      </c>
+      <c r="AE5" s="99">
+        <f>SUM(AD5:AD6)</f>
+        <v>2.3663574033370525</v>
+      </c>
+      <c r="AF5" s="99">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>22</v>
       </c>
@@ -3160,7 +2788,7 @@
         <v>114</v>
       </c>
       <c r="E6" s="45">
-        <f t="shared" ref="E6:E17" si="4">C6*D6</f>
+        <f t="shared" ref="E6:E17" si="0">C6*D6</f>
         <v>2280</v>
       </c>
       <c r="F6" s="38">
@@ -3168,115 +2796,92 @@
         <v>38</v>
       </c>
       <c r="G6" s="45">
-        <f t="shared" ref="G6:G17" si="5">C6*F6</f>
+        <f t="shared" ref="G6:G17" si="1">C6*F6</f>
         <v>760</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="I6" s="45">
+        <f t="shared" ref="I6:I17" si="2">C6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="38">
+        <v>114</v>
+      </c>
+      <c r="K6" s="45">
+        <f t="shared" ref="K6:K17" si="3">C6*J6</f>
+        <v>2280</v>
+      </c>
+      <c r="L6" s="38">
+        <f>L5*2</f>
+        <v>38</v>
+      </c>
+      <c r="M6" s="45">
+        <f t="shared" ref="M6:M17" si="4">C6*L6</f>
+        <v>760</v>
+      </c>
       <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
+      <c r="O6" s="45">
+        <f t="shared" ref="O6:O17" si="5">C6*N6</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="38">
+        <v>114</v>
+      </c>
       <c r="Q6" s="45">
-        <f t="shared" ref="Q6:Q16" si="6">C6*H6</f>
-        <v>0</v>
+        <f t="shared" ref="Q6:Q17" si="6">C6*P6</f>
+        <v>2280</v>
       </c>
       <c r="R6" s="38">
-        <v>114</v>
+        <f>R5*2</f>
+        <v>38</v>
       </c>
       <c r="S6" s="45">
         <f t="shared" ref="S6:S17" si="7">C6*R6</f>
-        <v>2280</v>
-      </c>
-      <c r="T6" s="38">
-        <f>T5*2</f>
-        <v>38</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="T6" s="38"/>
       <c r="U6" s="45">
         <f t="shared" ref="U6:U17" si="8">C6*T6</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="38">
+        <v>114</v>
+      </c>
+      <c r="W6" s="45">
+        <f t="shared" ref="W6:W17" si="9">V6*C6</f>
+        <v>2280</v>
+      </c>
+      <c r="X6" s="38">
+        <f>X5*2</f>
+        <v>38</v>
+      </c>
+      <c r="Y6" s="45">
+        <f t="shared" ref="Y6:Y17" si="10">X6*C6</f>
         <v>760</v>
       </c>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
       <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38">
-        <v>114</v>
-      </c>
-      <c r="AG6" s="45">
-        <f t="shared" si="0"/>
-        <v>2280</v>
-      </c>
-      <c r="AH6" s="38">
-        <f>AH5*2</f>
-        <v>38</v>
-      </c>
-      <c r="AI6" s="45">
-        <f t="shared" si="1"/>
-        <v>760</v>
-      </c>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="44"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="44"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="44"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="44"/>
-      <c r="AT6" s="38">
-        <v>114</v>
-      </c>
-      <c r="AU6" s="45">
-        <f t="shared" si="2"/>
-        <v>2280</v>
-      </c>
-      <c r="AV6" s="38">
-        <f>AV5*2</f>
-        <v>38</v>
-      </c>
-      <c r="AW6" s="45">
-        <f t="shared" si="3"/>
-        <v>760</v>
-      </c>
-      <c r="AX6" s="38"/>
-      <c r="AY6" s="38"/>
-      <c r="AZ6" s="38"/>
-      <c r="BA6" s="38"/>
-      <c r="BB6" s="38"/>
-      <c r="BC6" s="38"/>
-      <c r="BD6" s="38"/>
-      <c r="BE6" s="38"/>
-      <c r="BF6" s="38"/>
-      <c r="BG6" s="38"/>
-      <c r="BH6" s="45">
-        <f t="shared" ref="BH6:BH19" si="9">SUM(E6+G6+I6+K6+M6+O6+Q6+S6+U6+W6+Y6+AA6+AC6+AE6+AG6+AI6+AK6+AM6+AO6+AQ6+AS6+AU6+AW6+AY6+BA6+BC6+BE6+BG6)</f>
+      <c r="AA6" s="45">
+        <f t="shared" ref="AA6:AA17" si="11">Z6*C6</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="45">
+        <f>E6+G6+I6+K6+M6+O6+Q6+S6+U6+W6+Y6+AA6</f>
         <v>12160</v>
       </c>
-      <c r="BI6" s="45">
-        <f t="shared" ref="BI6:BI18" si="10">BH6*$BI$19</f>
+      <c r="AC6" s="45">
+        <f t="shared" ref="AC6:AC18" si="12">AB6*$AC$19</f>
         <v>1216000</v>
       </c>
-      <c r="BJ6" s="46">
-        <f t="shared" ref="BJ6:BJ18" si="11">BI6/$BH$19</f>
-        <v>0.38653338832686263</v>
-      </c>
-      <c r="BK6" s="104"/>
-      <c r="BL6" s="104"/>
-    </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="AD6" s="46">
+        <f t="shared" ref="AD6:AD18" si="13">AC6/$AB$19</f>
+        <v>0.38653338832686251</v>
+      </c>
+      <c r="AE6" s="99"/>
+      <c r="AF6" s="99"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>16</v>
@@ -3288,130 +2893,99 @@
         <v>64</v>
       </c>
       <c r="E7" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>4290.5600000000004</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="38">
+        <v>64</v>
+      </c>
+      <c r="I7" s="45">
+        <f t="shared" si="2"/>
+        <v>4290.5600000000004</v>
+      </c>
+      <c r="J7" s="38">
+        <v>64</v>
+      </c>
+      <c r="K7" s="45">
+        <f t="shared" si="3"/>
+        <v>4290.5600000000004</v>
+      </c>
+      <c r="L7" s="38"/>
+      <c r="M7" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="38">
+        <v>64</v>
+      </c>
+      <c r="O7" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
+        <v>4290.5600000000004</v>
+      </c>
       <c r="P7" s="38">
         <v>64</v>
       </c>
       <c r="Q7" s="45">
-        <f>C7*P7</f>
+        <f t="shared" si="6"/>
         <v>4290.5600000000004</v>
       </c>
-      <c r="R7" s="38">
-        <v>64</v>
-      </c>
+      <c r="R7" s="38"/>
       <c r="S7" s="45">
         <f t="shared" si="7"/>
-        <v>4290.5600000000004</v>
-      </c>
-      <c r="T7" s="38"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="38">
+        <v>64</v>
+      </c>
       <c r="U7" s="45">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="38"/>
+        <v>4290.5600000000004</v>
+      </c>
+      <c r="V7" s="38">
+        <v>64</v>
+      </c>
+      <c r="W7" s="45">
+        <f t="shared" si="9"/>
+        <v>4290.5600000000004</v>
+      </c>
       <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38">
+      <c r="Y7" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="38">
         <v>64</v>
       </c>
-      <c r="AE7" s="45">
-        <f>C7*AD7</f>
+      <c r="AA7" s="45">
+        <f t="shared" si="11"/>
         <v>4290.5600000000004</v>
       </c>
-      <c r="AF7" s="38">
-        <v>64</v>
-      </c>
-      <c r="AG7" s="45">
-        <f t="shared" si="0"/>
-        <v>4290.5600000000004</v>
-      </c>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="44"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="44"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="44"/>
-      <c r="AR7" s="38">
-        <v>64</v>
-      </c>
-      <c r="AS7" s="44">
-        <f>C7*AR7</f>
-        <v>4290.5600000000004</v>
-      </c>
-      <c r="AT7" s="38">
-        <v>64</v>
-      </c>
-      <c r="AU7" s="45">
-        <f t="shared" si="2"/>
-        <v>4290.5600000000004</v>
-      </c>
-      <c r="AV7" s="38"/>
-      <c r="AW7" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AX7" s="38"/>
-      <c r="AY7" s="38"/>
-      <c r="AZ7" s="38"/>
-      <c r="BA7" s="38"/>
-      <c r="BB7" s="38"/>
-      <c r="BC7" s="38"/>
-      <c r="BD7" s="38"/>
-      <c r="BE7" s="38"/>
-      <c r="BF7" s="38">
-        <v>64</v>
-      </c>
-      <c r="BG7" s="45">
-        <f>BF7*C7</f>
-        <v>4290.5600000000004</v>
-      </c>
-      <c r="BH7" s="45">
-        <f t="shared" si="9"/>
+      <c r="AB7" s="45">
+        <f t="shared" ref="AB7:AB18" si="14">E7+G7+I7+K7+M7+O7+Q7+S7+U7+W7+Y7+AA7</f>
         <v>34324.480000000003</v>
       </c>
-      <c r="BI7" s="45">
-        <f t="shared" si="10"/>
+      <c r="AC7" s="45">
+        <f t="shared" si="12"/>
         <v>3432448.0000000005</v>
       </c>
-      <c r="BJ7" s="47">
-        <f t="shared" si="11"/>
-        <v>1.0910820359340159</v>
-      </c>
-      <c r="BK7" s="104">
-        <f>SUM(BJ7:BJ8)</f>
-        <v>1.8576387765738152</v>
-      </c>
-      <c r="BL7" s="104">
+      <c r="AD7" s="47">
+        <f t="shared" si="13"/>
+        <v>1.0910820359340154</v>
+      </c>
+      <c r="AE7" s="99">
+        <f>SUM(AD7:AD8)</f>
+        <v>1.8576387765738145</v>
+      </c>
+      <c r="AF7" s="99">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>20</v>
       </c>
@@ -3426,128 +3000,97 @@
         <v>320</v>
       </c>
       <c r="E8" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3014.4</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="38">
+        <v>320</v>
+      </c>
+      <c r="I8" s="45">
+        <f t="shared" si="2"/>
+        <v>3014.4</v>
+      </c>
+      <c r="J8" s="38">
+        <v>320</v>
+      </c>
+      <c r="K8" s="45">
+        <f t="shared" si="3"/>
+        <v>3014.4</v>
+      </c>
+      <c r="L8" s="38"/>
+      <c r="M8" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="38">
+        <v>320</v>
+      </c>
+      <c r="O8" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
+        <v>3014.4</v>
+      </c>
       <c r="P8" s="38">
+        <f>5*P7</f>
         <v>320</v>
       </c>
       <c r="Q8" s="45">
-        <f>C8*P8</f>
+        <f t="shared" si="6"/>
         <v>3014.4</v>
       </c>
-      <c r="R8" s="38">
-        <v>320</v>
-      </c>
+      <c r="R8" s="38"/>
       <c r="S8" s="45">
         <f t="shared" si="7"/>
-        <v>3014.4</v>
-      </c>
-      <c r="T8" s="38"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="38">
+        <v>320</v>
+      </c>
       <c r="U8" s="45">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="38"/>
+        <v>3014.4</v>
+      </c>
+      <c r="V8" s="38">
+        <v>320</v>
+      </c>
+      <c r="W8" s="45">
+        <f t="shared" si="9"/>
+        <v>3014.4</v>
+      </c>
       <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38">
+      <c r="Y8" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="38">
         <v>320</v>
       </c>
-      <c r="AE8" s="45">
-        <f>C8*AD8</f>
+      <c r="AA8" s="45">
+        <f t="shared" si="11"/>
         <v>3014.4</v>
       </c>
-      <c r="AF8" s="38">
-        <f>5*AF7</f>
-        <v>320</v>
-      </c>
-      <c r="AG8" s="45">
-        <f t="shared" si="0"/>
-        <v>3014.4</v>
-      </c>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="38"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="38"/>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="38"/>
-      <c r="AO8" s="44"/>
-      <c r="AP8" s="38"/>
-      <c r="AQ8" s="44"/>
-      <c r="AR8" s="38">
-        <v>320</v>
-      </c>
-      <c r="AS8" s="44">
-        <f>C8*AR8</f>
-        <v>3014.4</v>
-      </c>
-      <c r="AT8" s="38">
-        <v>320</v>
-      </c>
-      <c r="AU8" s="45">
-        <f t="shared" si="2"/>
-        <v>3014.4</v>
-      </c>
-      <c r="AV8" s="38"/>
-      <c r="AW8" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AX8" s="38"/>
-      <c r="AY8" s="38"/>
-      <c r="AZ8" s="38"/>
-      <c r="BA8" s="38"/>
-      <c r="BB8" s="38"/>
-      <c r="BC8" s="38"/>
-      <c r="BD8" s="38"/>
-      <c r="BE8" s="38"/>
-      <c r="BF8" s="38">
-        <v>320</v>
-      </c>
-      <c r="BG8" s="45">
-        <f>BF8*C8</f>
-        <v>3014.4</v>
-      </c>
-      <c r="BH8" s="45">
-        <f t="shared" si="9"/>
+      <c r="AB8" s="45">
+        <f t="shared" si="14"/>
         <v>24115.200000000004</v>
       </c>
-      <c r="BI8" s="45">
-        <f t="shared" si="10"/>
+      <c r="AC8" s="45">
+        <f t="shared" si="12"/>
         <v>2411520.0000000005</v>
       </c>
-      <c r="BJ8" s="47">
-        <f t="shared" si="11"/>
-        <v>0.76655674063979928</v>
-      </c>
-      <c r="BK8" s="104"/>
-      <c r="BL8" s="104"/>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="AD8" s="47">
+        <f t="shared" si="13"/>
+        <v>0.76655674063979906</v>
+      </c>
+      <c r="AE8" s="99"/>
+      <c r="AF8" s="99"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>16</v>
@@ -3559,28 +3102,46 @@
         <v>64</v>
       </c>
       <c r="E9" s="45">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="F9" s="38">
+        <v>64</v>
+      </c>
+      <c r="G9" s="45">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="38">
+        <v>64</v>
+      </c>
+      <c r="K9" s="45">
+        <f t="shared" si="3"/>
+        <v>8000</v>
+      </c>
+      <c r="L9" s="38">
+        <v>64</v>
+      </c>
+      <c r="M9" s="45">
         <f t="shared" si="4"/>
         <v>8000</v>
       </c>
-      <c r="F9" s="38">
+      <c r="N9" s="38"/>
+      <c r="O9" s="45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="38">
         <v>64</v>
       </c>
-      <c r="G9" s="45">
-        <f t="shared" si="5"/>
-        <v>8000</v>
-      </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
       <c r="Q9" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="R9" s="38">
         <v>64</v>
@@ -3589,94 +3150,53 @@
         <f t="shared" si="7"/>
         <v>8000</v>
       </c>
-      <c r="T9" s="38">
-        <v>64</v>
-      </c>
+      <c r="T9" s="38"/>
       <c r="U9" s="45">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="38">
+        <v>64</v>
+      </c>
+      <c r="W9" s="45">
+        <f t="shared" si="9"/>
         <v>8000</v>
       </c>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
+      <c r="X9" s="38">
+        <v>64</v>
+      </c>
+      <c r="Y9" s="45">
+        <f t="shared" si="10"/>
+        <v>8000</v>
+      </c>
       <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38">
-        <v>64</v>
-      </c>
-      <c r="AG9" s="45">
-        <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-      <c r="AH9" s="38">
-        <v>64</v>
-      </c>
-      <c r="AI9" s="45">
-        <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="44"/>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="44"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="44"/>
-      <c r="AP9" s="38"/>
-      <c r="AQ9" s="44"/>
-      <c r="AR9" s="38"/>
-      <c r="AS9" s="44"/>
-      <c r="AT9" s="38">
-        <v>64</v>
-      </c>
-      <c r="AU9" s="45">
-        <f t="shared" si="2"/>
-        <v>8000</v>
-      </c>
-      <c r="AV9" s="38">
-        <v>64</v>
-      </c>
-      <c r="AW9" s="45">
-        <f t="shared" si="3"/>
-        <v>8000</v>
-      </c>
-      <c r="AX9" s="38"/>
-      <c r="AY9" s="38"/>
-      <c r="AZ9" s="38"/>
-      <c r="BA9" s="38"/>
-      <c r="BB9" s="38"/>
-      <c r="BC9" s="38"/>
-      <c r="BD9" s="38"/>
-      <c r="BE9" s="38"/>
-      <c r="BF9" s="38"/>
-      <c r="BG9" s="38"/>
-      <c r="BH9" s="45">
-        <f t="shared" si="9"/>
+      <c r="AA9" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="45">
+        <f t="shared" si="14"/>
         <v>64000</v>
       </c>
-      <c r="BI9" s="45">
-        <f t="shared" si="10"/>
+      <c r="AC9" s="45">
+        <f t="shared" si="12"/>
         <v>6400000</v>
       </c>
-      <c r="BJ9" s="48">
-        <f t="shared" si="11"/>
-        <v>2.0343862543519089</v>
-      </c>
-      <c r="BK9" s="104">
-        <f>SUM(BJ9:BJ10)</f>
-        <v>7.8348283427600709</v>
-      </c>
-      <c r="BL9" s="104">
+      <c r="AD9" s="48">
+        <f t="shared" si="13"/>
+        <v>2.034386254351908</v>
+      </c>
+      <c r="AE9" s="99">
+        <f>SUM(AD9:AD10)</f>
+        <v>7.8348283427600682</v>
+      </c>
+      <c r="AF9" s="99">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>18</v>
@@ -3689,7 +3209,7 @@
         <v>15360</v>
       </c>
       <c r="E10" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>30412.799999999999</v>
       </c>
       <c r="F10" s="38">
@@ -3697,118 +3217,95 @@
         <v>7680</v>
       </c>
       <c r="G10" s="45">
+        <f t="shared" si="1"/>
+        <v>15206.4</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="38">
+        <f>64*240</f>
+        <v>15360</v>
+      </c>
+      <c r="K10" s="45">
+        <f t="shared" si="3"/>
+        <v>30412.799999999999</v>
+      </c>
+      <c r="L10" s="38">
+        <f>64*120</f>
+        <v>7680</v>
+      </c>
+      <c r="M10" s="45">
+        <f t="shared" si="4"/>
+        <v>15206.4</v>
+      </c>
+      <c r="N10" s="38"/>
+      <c r="O10" s="45">
         <f t="shared" si="5"/>
-        <v>15206.4</v>
-      </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="38">
+        <f>64*240</f>
+        <v>15360</v>
+      </c>
       <c r="Q10" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30412.799999999999</v>
       </c>
       <c r="R10" s="38">
+        <f>64*120</f>
+        <v>7680</v>
+      </c>
+      <c r="S10" s="45">
+        <f t="shared" si="7"/>
+        <v>15206.4</v>
+      </c>
+      <c r="T10" s="38"/>
+      <c r="U10" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="38">
         <f>64*240</f>
         <v>15360</v>
       </c>
-      <c r="S10" s="45">
-        <f t="shared" si="7"/>
+      <c r="W10" s="45">
+        <f t="shared" si="9"/>
         <v>30412.799999999999</v>
       </c>
-      <c r="T10" s="38">
+      <c r="X10" s="38">
         <f>64*120</f>
         <v>7680</v>
       </c>
-      <c r="U10" s="45">
-        <f t="shared" si="8"/>
+      <c r="Y10" s="45">
+        <f t="shared" si="10"/>
         <v>15206.4</v>
       </c>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
       <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38">
-        <f>64*240</f>
-        <v>15360</v>
-      </c>
-      <c r="AG10" s="45">
-        <f t="shared" si="0"/>
-        <v>30412.799999999999</v>
-      </c>
-      <c r="AH10" s="38">
-        <f>64*120</f>
-        <v>7680</v>
-      </c>
-      <c r="AI10" s="45">
-        <f t="shared" si="1"/>
-        <v>15206.4</v>
-      </c>
-      <c r="AJ10" s="38"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="38"/>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="38"/>
-      <c r="AO10" s="44"/>
-      <c r="AP10" s="38"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="38"/>
-      <c r="AS10" s="44"/>
-      <c r="AT10" s="38">
-        <f>64*240</f>
-        <v>15360</v>
-      </c>
-      <c r="AU10" s="45">
-        <f t="shared" si="2"/>
-        <v>30412.799999999999</v>
-      </c>
-      <c r="AV10" s="38">
-        <f>64*120</f>
-        <v>7680</v>
-      </c>
-      <c r="AW10" s="45">
-        <f t="shared" si="3"/>
-        <v>15206.4</v>
-      </c>
-      <c r="AX10" s="38"/>
-      <c r="AY10" s="38"/>
-      <c r="AZ10" s="38"/>
-      <c r="BA10" s="38"/>
-      <c r="BB10" s="38"/>
-      <c r="BC10" s="38"/>
-      <c r="BD10" s="38"/>
-      <c r="BE10" s="38"/>
-      <c r="BF10" s="38"/>
-      <c r="BG10" s="38"/>
-      <c r="BH10" s="45">
-        <f t="shared" si="9"/>
+      <c r="AA10" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="45">
+        <f t="shared" si="14"/>
         <v>182476.79999999999</v>
       </c>
-      <c r="BI10" s="45">
-        <f t="shared" si="10"/>
+      <c r="AC10" s="45">
+        <f t="shared" si="12"/>
         <v>18247680</v>
       </c>
-      <c r="BJ10" s="48">
-        <f t="shared" si="11"/>
-        <v>5.800442088408162</v>
-      </c>
-      <c r="BK10" s="104"/>
-      <c r="BL10" s="104"/>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="AD10" s="48">
+        <f t="shared" si="13"/>
+        <v>5.8004420884081602</v>
+      </c>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="99"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" s="38" t="s">
         <v>16</v>
@@ -3818,118 +3315,95 @@
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="38">
         <v>22</v>
       </c>
       <c r="G11" s="45">
+        <f t="shared" si="1"/>
+        <v>651.20000000000005</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="38">
+        <v>22</v>
+      </c>
+      <c r="M11" s="45">
+        <f t="shared" si="4"/>
+        <v>651.20000000000005</v>
+      </c>
+      <c r="N11" s="38"/>
+      <c r="O11" s="45">
         <f t="shared" si="5"/>
-        <v>651.20000000000005</v>
-      </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
+        <v>0</v>
+      </c>
       <c r="P11" s="38"/>
       <c r="Q11" s="45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R11" s="38"/>
+      <c r="R11" s="38">
+        <v>22</v>
+      </c>
       <c r="S11" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="38">
-        <v>22</v>
-      </c>
+        <v>651.20000000000005</v>
+      </c>
+      <c r="T11" s="38"/>
       <c r="U11" s="45">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="38"/>
+      <c r="W11" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="38">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="45">
+        <f t="shared" si="10"/>
         <v>651.20000000000005</v>
       </c>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
       <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH11" s="38">
-        <v>22</v>
-      </c>
-      <c r="AI11" s="45">
-        <f t="shared" si="1"/>
-        <v>651.20000000000005</v>
-      </c>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="44"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="44"/>
-      <c r="AN11" s="38"/>
-      <c r="AO11" s="44"/>
-      <c r="AP11" s="38"/>
-      <c r="AQ11" s="44"/>
-      <c r="AR11" s="38"/>
-      <c r="AS11" s="44"/>
-      <c r="AT11" s="38"/>
-      <c r="AU11" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AV11" s="38">
-        <v>22</v>
-      </c>
-      <c r="AW11" s="45">
-        <f t="shared" si="3"/>
-        <v>651.20000000000005</v>
-      </c>
-      <c r="AX11" s="38"/>
-      <c r="AY11" s="38"/>
-      <c r="AZ11" s="38"/>
-      <c r="BA11" s="38"/>
-      <c r="BB11" s="38"/>
-      <c r="BC11" s="38"/>
-      <c r="BD11" s="38"/>
-      <c r="BE11" s="38"/>
-      <c r="BF11" s="38"/>
-      <c r="BG11" s="38"/>
-      <c r="BH11" s="45">
-        <f t="shared" si="9"/>
+      <c r="AA11" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="45">
+        <f t="shared" si="14"/>
         <v>2604.8000000000002</v>
       </c>
-      <c r="BI11" s="45">
-        <f t="shared" si="10"/>
+      <c r="AC11" s="45">
+        <f t="shared" si="12"/>
         <v>260480.00000000003</v>
       </c>
-      <c r="BJ11" s="49">
-        <f t="shared" si="11"/>
-        <v>8.2799520552122696E-2</v>
-      </c>
-      <c r="BK11" s="104">
-        <f>SUM(BJ11:BJ13)</f>
-        <v>0.17286358012025427</v>
-      </c>
-      <c r="BL11" s="104">
+      <c r="AD11" s="49">
+        <f t="shared" si="13"/>
+        <v>8.2799520552122668E-2</v>
+      </c>
+      <c r="AE11" s="99">
+        <f>SUM(AD11:AD13)</f>
+        <v>0.17286358012025421</v>
+      </c>
+      <c r="AF11" s="99">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>18</v>
@@ -3939,113 +3413,90 @@
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12" s="38">
         <v>2.2000000000000002</v>
       </c>
       <c r="G12" s="45">
+        <f t="shared" si="1"/>
+        <v>614.70200000000011</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="38">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M12" s="45">
+        <f t="shared" si="4"/>
+        <v>614.70200000000011</v>
+      </c>
+      <c r="N12" s="38"/>
+      <c r="O12" s="45">
         <f t="shared" si="5"/>
-        <v>614.70200000000011</v>
-      </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
+        <v>0</v>
+      </c>
       <c r="P12" s="38"/>
       <c r="Q12" s="45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R12" s="38"/>
+      <c r="R12" s="38">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="S12" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="38">
-        <v>2.2000000000000002</v>
-      </c>
+        <v>614.70200000000011</v>
+      </c>
+      <c r="T12" s="38"/>
       <c r="U12" s="45">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="38"/>
+      <c r="W12" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="38">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y12" s="45">
+        <f t="shared" si="10"/>
         <v>614.70200000000011</v>
       </c>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
       <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="38">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AI12" s="45">
-        <f t="shared" si="1"/>
-        <v>614.70200000000011</v>
-      </c>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="44"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="44"/>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="44"/>
-      <c r="AT12" s="38"/>
-      <c r="AU12" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AV12" s="38">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AW12" s="45">
-        <f t="shared" si="3"/>
-        <v>614.70200000000011</v>
-      </c>
-      <c r="AX12" s="38"/>
-      <c r="AY12" s="38"/>
-      <c r="AZ12" s="38"/>
-      <c r="BA12" s="38"/>
-      <c r="BB12" s="38"/>
-      <c r="BC12" s="38"/>
-      <c r="BD12" s="38"/>
-      <c r="BE12" s="38"/>
-      <c r="BF12" s="38"/>
-      <c r="BG12" s="38"/>
-      <c r="BH12" s="45">
-        <f t="shared" si="9"/>
+      <c r="AA12" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="45">
+        <f t="shared" si="14"/>
         <v>2458.8080000000004</v>
       </c>
-      <c r="BI12" s="45">
-        <f t="shared" si="10"/>
+      <c r="AC12" s="45">
+        <f t="shared" si="12"/>
         <v>245880.80000000005</v>
       </c>
-      <c r="BJ12" s="49">
-        <f t="shared" si="11"/>
-        <v>7.8158831207664203E-2</v>
-      </c>
-      <c r="BK12" s="104"/>
-      <c r="BL12" s="104"/>
-    </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="AD12" s="49">
+        <f t="shared" si="13"/>
+        <v>7.8158831207664176E-2</v>
+      </c>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="99"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="39" t="s">
         <v>24</v>
@@ -4055,113 +3506,90 @@
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="38">
         <v>8.8000000000000007</v>
       </c>
       <c r="G13" s="45">
+        <f t="shared" si="1"/>
+        <v>93.632000000000019</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="38"/>
+      <c r="K13" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="38">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M13" s="45">
+        <f t="shared" si="4"/>
+        <v>93.632000000000019</v>
+      </c>
+      <c r="N13" s="38"/>
+      <c r="O13" s="45">
         <f t="shared" si="5"/>
-        <v>93.632000000000019</v>
-      </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
+        <v>0</v>
+      </c>
       <c r="P13" s="38"/>
       <c r="Q13" s="45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R13" s="38"/>
+      <c r="R13" s="38">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="S13" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="38">
-        <v>8.8000000000000007</v>
-      </c>
+        <v>93.632000000000019</v>
+      </c>
+      <c r="T13" s="38"/>
       <c r="U13" s="45">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="38"/>
+      <c r="W13" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="38">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Y13" s="45">
+        <f t="shared" si="10"/>
         <v>93.632000000000019</v>
       </c>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
       <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH13" s="38">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AI13" s="45">
-        <f t="shared" si="1"/>
-        <v>93.632000000000019</v>
-      </c>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="44"/>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="44"/>
-      <c r="AN13" s="38"/>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="38"/>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="38"/>
-      <c r="AU13" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AV13" s="38">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AW13" s="45">
-        <f t="shared" si="3"/>
-        <v>93.632000000000019</v>
-      </c>
-      <c r="AX13" s="38"/>
-      <c r="AY13" s="38"/>
-      <c r="AZ13" s="38"/>
-      <c r="BA13" s="38"/>
-      <c r="BB13" s="38"/>
-      <c r="BC13" s="38"/>
-      <c r="BD13" s="38"/>
-      <c r="BE13" s="38"/>
-      <c r="BF13" s="38"/>
-      <c r="BG13" s="38"/>
-      <c r="BH13" s="45">
-        <f t="shared" si="9"/>
+      <c r="AA13" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="45">
+        <f t="shared" si="14"/>
         <v>374.52800000000008</v>
       </c>
-      <c r="BI13" s="45">
-        <f t="shared" si="10"/>
+      <c r="AC13" s="45">
+        <f t="shared" si="12"/>
         <v>37452.80000000001</v>
       </c>
-      <c r="BJ13" s="49">
-        <f t="shared" si="11"/>
-        <v>1.1905228360467373E-2</v>
-      </c>
-      <c r="BK13" s="104"/>
-      <c r="BL13" s="104"/>
-    </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="AD13" s="49">
+        <f t="shared" si="13"/>
+        <v>1.190522836046737E-2</v>
+      </c>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="99"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="38" t="s">
         <v>16</v>
@@ -4171,126 +3599,95 @@
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="38">
+        <v>64</v>
+      </c>
+      <c r="I14" s="45">
+        <f t="shared" si="2"/>
+        <v>320000</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="38"/>
+      <c r="M14" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="38">
+        <v>64</v>
+      </c>
+      <c r="O14" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38">
-        <v>64</v>
-      </c>
+        <v>320000</v>
+      </c>
+      <c r="P14" s="38"/>
       <c r="Q14" s="45">
-        <f>C14*P14</f>
-        <v>320000</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="R14" s="38"/>
       <c r="S14" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T14" s="38"/>
+      <c r="T14" s="38">
+        <v>64</v>
+      </c>
       <c r="U14" s="45">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="38"/>
+        <v>320000</v>
+      </c>
+      <c r="V14" s="38"/>
+      <c r="W14" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38">
+      <c r="Y14" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="38">
         <v>64</v>
       </c>
-      <c r="AE14" s="45">
-        <f>C14*AD14</f>
+      <c r="AA14" s="45">
+        <f t="shared" si="11"/>
         <v>320000</v>
       </c>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="38"/>
-      <c r="AK14" s="44"/>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="44"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="44"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="44"/>
-      <c r="AR14" s="38">
-        <v>64</v>
-      </c>
-      <c r="AS14" s="44">
-        <f>C14*AR14</f>
-        <v>320000</v>
-      </c>
-      <c r="AT14" s="38"/>
-      <c r="AU14" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AV14" s="38"/>
-      <c r="AW14" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AX14" s="38"/>
-      <c r="AY14" s="38"/>
-      <c r="AZ14" s="38"/>
-      <c r="BA14" s="38"/>
-      <c r="BB14" s="38"/>
-      <c r="BC14" s="38"/>
-      <c r="BD14" s="38"/>
-      <c r="BE14" s="38"/>
-      <c r="BF14" s="38">
-        <v>64</v>
-      </c>
-      <c r="BG14" s="45">
-        <f>BF14*C14</f>
-        <v>320000</v>
-      </c>
-      <c r="BH14" s="45">
-        <f t="shared" si="9"/>
+      <c r="AB14" s="45">
+        <f t="shared" si="14"/>
         <v>1280000</v>
       </c>
-      <c r="BI14" s="45">
-        <f t="shared" si="10"/>
+      <c r="AC14" s="45">
+        <f t="shared" si="12"/>
         <v>128000000</v>
       </c>
-      <c r="BJ14" s="50">
-        <f t="shared" si="11"/>
-        <v>40.687725087038174</v>
-      </c>
-      <c r="BK14" s="51">
-        <f>BJ14</f>
-        <v>40.687725087038174</v>
-      </c>
-      <c r="BL14" s="52">
+      <c r="AD14" s="50">
+        <f t="shared" si="13"/>
+        <v>40.68772508703816</v>
+      </c>
+      <c r="AE14" s="51">
+        <f>AD14</f>
+        <v>40.68772508703816</v>
+      </c>
+      <c r="AF14" s="52">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="38" t="s">
         <v>16</v>
@@ -4300,114 +3697,91 @@
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="38">
+        <v>64</v>
+      </c>
+      <c r="K15" s="45">
+        <f t="shared" si="3"/>
+        <v>37836.800000000003</v>
+      </c>
+      <c r="L15" s="38"/>
+      <c r="M15" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="38"/>
+      <c r="O15" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
       <c r="P15" s="38"/>
       <c r="Q15" s="45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R15" s="38">
-        <v>64</v>
-      </c>
+      <c r="R15" s="38"/>
       <c r="S15" s="45">
         <f t="shared" si="7"/>
-        <v>37836.800000000003</v>
+        <v>0</v>
       </c>
       <c r="T15" s="38"/>
       <c r="U15" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
+      <c r="V15" s="38">
+        <v>64</v>
+      </c>
+      <c r="W15" s="45">
+        <f t="shared" si="9"/>
+        <v>37836.800000000003</v>
+      </c>
       <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
+      <c r="Y15" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="38"/>
-      <c r="AI15" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="38"/>
-      <c r="AK15" s="44"/>
-      <c r="AL15" s="38"/>
-      <c r="AM15" s="44"/>
-      <c r="AN15" s="38"/>
-      <c r="AO15" s="44"/>
-      <c r="AP15" s="38"/>
-      <c r="AQ15" s="44"/>
-      <c r="AR15" s="38"/>
-      <c r="AS15" s="44"/>
-      <c r="AT15" s="38">
-        <v>64</v>
-      </c>
-      <c r="AU15" s="45">
-        <f t="shared" si="2"/>
-        <v>37836.800000000003</v>
-      </c>
-      <c r="AV15" s="38"/>
-      <c r="AW15" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AX15" s="38"/>
-      <c r="AY15" s="38"/>
-      <c r="AZ15" s="38"/>
-      <c r="BA15" s="38"/>
-      <c r="BB15" s="38"/>
-      <c r="BC15" s="38"/>
-      <c r="BD15" s="38"/>
-      <c r="BE15" s="38"/>
-      <c r="BF15" s="38"/>
-      <c r="BG15" s="38"/>
-      <c r="BH15" s="45">
-        <f t="shared" si="9"/>
+      <c r="AA15" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="45">
+        <f t="shared" si="14"/>
         <v>75673.600000000006</v>
       </c>
-      <c r="BI15" s="45">
-        <f t="shared" si="10"/>
+      <c r="AC15" s="45">
+        <f t="shared" si="12"/>
         <v>7567360.0000000009</v>
       </c>
-      <c r="BJ15" s="53">
-        <f t="shared" si="11"/>
-        <v>2.4054583071456972</v>
-      </c>
-      <c r="BK15" s="51">
-        <f>BJ15</f>
-        <v>2.4054583071456972</v>
-      </c>
-      <c r="BL15" s="52">
+      <c r="AD15" s="53">
+        <f t="shared" si="13"/>
+        <v>2.4054583071456963</v>
+      </c>
+      <c r="AE15" s="51">
+        <f>AD15</f>
+        <v>2.4054583071456963</v>
+      </c>
+      <c r="AF15" s="52">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>16</v>
@@ -4417,22 +3791,36 @@
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="38"/>
+      <c r="I16" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="38"/>
+      <c r="M16" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="38">
+        <v>64</v>
+      </c>
+      <c r="O16" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
+        <v>96000</v>
+      </c>
       <c r="P16" s="38"/>
       <c r="Q16" s="45">
         <f t="shared" si="6"/>
@@ -4448,91 +3836,49 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38">
+      <c r="Y16" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="38">
         <v>64</v>
       </c>
-      <c r="AE16" s="45">
-        <f>C16*AD16</f>
+      <c r="AA16" s="45">
+        <f t="shared" si="11"/>
         <v>96000</v>
       </c>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="38"/>
-      <c r="AK16" s="44"/>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="44"/>
-      <c r="AN16" s="38"/>
-      <c r="AO16" s="44"/>
-      <c r="AP16" s="38"/>
-      <c r="AQ16" s="44"/>
-      <c r="AR16" s="38"/>
-      <c r="AS16" s="44"/>
-      <c r="AT16" s="38"/>
-      <c r="AU16" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AV16" s="38"/>
-      <c r="AW16" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AX16" s="38"/>
-      <c r="AY16" s="38"/>
-      <c r="AZ16" s="38"/>
-      <c r="BA16" s="38"/>
-      <c r="BB16" s="38"/>
-      <c r="BC16" s="38"/>
-      <c r="BD16" s="38"/>
-      <c r="BE16" s="38"/>
-      <c r="BF16" s="38">
-        <v>64</v>
-      </c>
-      <c r="BG16" s="45">
-        <f>BF16*C16</f>
-        <v>96000</v>
-      </c>
-      <c r="BH16" s="45">
-        <f t="shared" si="9"/>
+      <c r="AB16" s="45">
+        <f t="shared" si="14"/>
         <v>192000</v>
       </c>
-      <c r="BI16" s="45">
-        <f t="shared" si="10"/>
+      <c r="AC16" s="45">
+        <f t="shared" si="12"/>
         <v>19200000</v>
       </c>
-      <c r="BJ16" s="50">
-        <f t="shared" si="11"/>
-        <v>6.1031587630557258</v>
-      </c>
-      <c r="BK16" s="51">
-        <f>BJ16</f>
-        <v>6.1031587630557258</v>
-      </c>
-      <c r="BL16" s="52">
+      <c r="AD16" s="50">
+        <f t="shared" si="13"/>
+        <v>6.103158763055724</v>
+      </c>
+      <c r="AE16" s="51">
+        <f>AD16</f>
+        <v>6.103158763055724</v>
+      </c>
+      <c r="AF16" s="52">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="40">
         <v>137.15</v>
@@ -4541,49 +3887,49 @@
         <v>1</v>
       </c>
       <c r="E17" s="41">
+        <f t="shared" si="0"/>
+        <v>137.15</v>
+      </c>
+      <c r="F17" s="39">
+        <v>1</v>
+      </c>
+      <c r="G17" s="41">
+        <f t="shared" si="1"/>
+        <v>137.15</v>
+      </c>
+      <c r="H17" s="39">
+        <v>5</v>
+      </c>
+      <c r="I17" s="41">
+        <f t="shared" si="2"/>
+        <v>685.75</v>
+      </c>
+      <c r="J17" s="39">
+        <v>1</v>
+      </c>
+      <c r="K17" s="41">
+        <f t="shared" si="3"/>
+        <v>137.15</v>
+      </c>
+      <c r="L17" s="39">
+        <v>1</v>
+      </c>
+      <c r="M17" s="41">
         <f t="shared" si="4"/>
         <v>137.15</v>
       </c>
-      <c r="F17" s="39">
-        <v>1</v>
-      </c>
-      <c r="G17" s="41">
+      <c r="N17" s="39">
+        <v>5</v>
+      </c>
+      <c r="O17" s="41">
         <f t="shared" si="5"/>
-        <v>137.15</v>
-      </c>
-      <c r="H17" s="39">
-        <v>1</v>
-      </c>
-      <c r="I17" s="41">
-        <f t="shared" ref="I17" si="12">E17*H17</f>
-        <v>137.15</v>
-      </c>
-      <c r="J17" s="39">
-        <v>1</v>
-      </c>
-      <c r="K17" s="41">
-        <f t="shared" ref="K17" si="13">G17*J17</f>
-        <v>137.15</v>
-      </c>
-      <c r="L17" s="39">
-        <v>1</v>
-      </c>
-      <c r="M17" s="41">
-        <f t="shared" ref="M17" si="14">I17*L17</f>
-        <v>137.15</v>
-      </c>
-      <c r="N17" s="39">
-        <v>1</v>
-      </c>
-      <c r="O17" s="41">
-        <f t="shared" ref="O17" si="15">K17*N17</f>
-        <v>137.15</v>
+        <v>685.75</v>
       </c>
       <c r="P17" s="39">
         <v>1</v>
       </c>
       <c r="Q17" s="41">
-        <f t="shared" ref="Q17" si="16">M17*P17</f>
+        <f t="shared" si="6"/>
         <v>137.15</v>
       </c>
       <c r="R17" s="39">
@@ -4594,171 +3940,59 @@
         <v>137.15</v>
       </c>
       <c r="T17" s="39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U17" s="41">
         <f t="shared" si="8"/>
-        <v>137.15</v>
+        <v>685.75</v>
       </c>
       <c r="V17" s="39">
         <v>1</v>
       </c>
       <c r="W17" s="41">
-        <f>C17*V17</f>
+        <f t="shared" si="9"/>
         <v>137.15</v>
       </c>
       <c r="X17" s="39">
         <v>1</v>
       </c>
       <c r="Y17" s="41">
-        <f>C17*X17</f>
+        <f t="shared" si="10"/>
         <v>137.15</v>
       </c>
       <c r="Z17" s="39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA17" s="41">
-        <f>C17*Z17</f>
-        <v>137.15</v>
-      </c>
-      <c r="AB17" s="39">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>685.75</v>
+      </c>
+      <c r="AB17" s="41">
+        <f t="shared" si="14"/>
+        <v>3840.2000000000003</v>
       </c>
       <c r="AC17" s="41">
-        <f>C17*AB17</f>
-        <v>137.15</v>
-      </c>
-      <c r="AD17" s="39">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="41">
-        <f>C17*AD17</f>
-        <v>137.15</v>
-      </c>
-      <c r="AF17" s="39">
-        <v>1</v>
-      </c>
-      <c r="AG17" s="41">
-        <f t="shared" si="0"/>
-        <v>137.15</v>
-      </c>
-      <c r="AH17" s="39">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="41">
-        <f>$C$17*AH17</f>
-        <v>137.15</v>
-      </c>
-      <c r="AJ17" s="39">
-        <v>1</v>
-      </c>
-      <c r="AK17" s="41">
-        <f>$C$17*AJ17</f>
-        <v>137.15</v>
-      </c>
-      <c r="AL17" s="39">
-        <v>1</v>
-      </c>
-      <c r="AM17" s="41">
-        <f>$C$17*AL17</f>
-        <v>137.15</v>
-      </c>
-      <c r="AN17" s="39">
-        <v>1</v>
-      </c>
-      <c r="AO17" s="41">
-        <f>$C$17*AN17</f>
-        <v>137.15</v>
-      </c>
-      <c r="AP17" s="39">
-        <v>1</v>
-      </c>
-      <c r="AQ17" s="41">
-        <f>$C$17*AP17</f>
-        <v>137.15</v>
-      </c>
-      <c r="AR17" s="39">
-        <v>1</v>
-      </c>
-      <c r="AS17" s="41">
-        <f>$C$17*AR17</f>
-        <v>137.15</v>
-      </c>
-      <c r="AT17" s="39">
-        <v>1</v>
-      </c>
-      <c r="AU17" s="41">
-        <f t="shared" si="2"/>
-        <v>137.15</v>
-      </c>
-      <c r="AV17" s="39">
-        <v>1</v>
-      </c>
-      <c r="AW17" s="41">
-        <f>AV17*$C$17</f>
-        <v>137.15</v>
-      </c>
-      <c r="AX17" s="39">
-        <v>1</v>
-      </c>
-      <c r="AY17" s="41">
-        <f>AX17*$C$17</f>
-        <v>137.15</v>
-      </c>
-      <c r="AZ17" s="39">
-        <v>1</v>
-      </c>
-      <c r="BA17" s="41">
-        <f>AZ17*$C$17</f>
-        <v>137.15</v>
-      </c>
-      <c r="BB17" s="39">
-        <v>1</v>
-      </c>
-      <c r="BC17" s="41">
-        <f>BB17*$C$17</f>
-        <v>137.15</v>
-      </c>
-      <c r="BD17" s="39">
-        <v>1</v>
-      </c>
-      <c r="BE17" s="41">
-        <f>BD17*$C$17</f>
-        <v>137.15</v>
-      </c>
-      <c r="BF17" s="39">
-        <v>1</v>
-      </c>
-      <c r="BG17" s="41">
-        <f>BF17*$C$17</f>
-        <v>137.15</v>
-      </c>
-      <c r="BH17" s="45">
-        <f t="shared" si="9"/>
-        <v>3840.2000000000016</v>
-      </c>
-      <c r="BI17" s="41">
-        <f t="shared" si="10"/>
-        <v>384020.00000000017</v>
-      </c>
-      <c r="BJ17" s="75">
-        <f t="shared" si="11"/>
-        <v>0.12206953271815943</v>
-      </c>
-      <c r="BK17" s="54">
-        <f>BJ17</f>
-        <v>0.12206953271815943</v>
-      </c>
-      <c r="BL17" s="55">
+        <f t="shared" si="12"/>
+        <v>384020</v>
+      </c>
+      <c r="AD17" s="75">
+        <f t="shared" si="13"/>
+        <v>0.12206953271815933</v>
+      </c>
+      <c r="AE17" s="54">
+        <f>AD17</f>
+        <v>0.12206953271815933</v>
+      </c>
+      <c r="AF17" s="55">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="39" t="s">
         <v>67</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>66</v>
       </c>
       <c r="C18" s="40">
         <v>3600</v>
@@ -4778,38 +4012,39 @@
         <v>43200</v>
       </c>
       <c r="H18" s="39">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I18" s="45">
-        <f>H18*C18</f>
-        <v>43200</v>
+        <f>C18*H18</f>
+        <v>216000</v>
       </c>
       <c r="J18" s="39">
         <v>12</v>
       </c>
       <c r="K18" s="45">
-        <f>J18*C18</f>
+        <f>C18*J18</f>
         <v>43200</v>
       </c>
       <c r="L18" s="39">
         <v>12</v>
       </c>
-      <c r="M18" s="45">
-        <f>L18*C18</f>
+      <c r="M18" s="41">
+        <f>C18*L18</f>
         <v>43200</v>
       </c>
       <c r="N18" s="39">
-        <v>12</v>
-      </c>
-      <c r="O18" s="45">
-        <f>N18*C18</f>
-        <v>43200</v>
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+      <c r="O18" s="41">
+        <f>C18*N18</f>
+        <v>216000</v>
       </c>
       <c r="P18" s="39">
         <v>12</v>
       </c>
       <c r="Q18" s="45">
-        <f>P18*C18</f>
+        <f>C18*P18</f>
         <v>43200</v>
       </c>
       <c r="R18" s="39">
@@ -4820,166 +4055,54 @@
         <v>43200</v>
       </c>
       <c r="T18" s="39">
-        <v>12</v>
-      </c>
-      <c r="U18" s="41">
+        <v>60</v>
+      </c>
+      <c r="U18" s="45">
         <f>C18*T18</f>
-        <v>43200</v>
+        <v>216000</v>
       </c>
       <c r="V18" s="39">
         <v>12</v>
       </c>
-      <c r="W18" s="41">
-        <f>C18*V18</f>
+      <c r="W18" s="45">
+        <f>V18*C18</f>
         <v>43200</v>
       </c>
       <c r="X18" s="39">
         <v>12</v>
       </c>
-      <c r="Y18" s="41">
-        <f>C18*X18</f>
+      <c r="Y18" s="45">
+        <f>X18*C18</f>
         <v>43200</v>
       </c>
       <c r="Z18" s="39">
-        <v>12</v>
-      </c>
-      <c r="AA18" s="41">
-        <f>C18*Z18</f>
-        <v>43200</v>
-      </c>
-      <c r="AB18" s="39">
-        <v>12</v>
-      </c>
-      <c r="AC18" s="41">
-        <f>C18*AB18</f>
-        <v>43200</v>
-      </c>
-      <c r="AD18" s="39">
-        <v>12</v>
-      </c>
-      <c r="AE18" s="41">
-        <f>C18*AD18</f>
-        <v>43200</v>
-      </c>
-      <c r="AF18" s="39">
-        <v>12</v>
-      </c>
-      <c r="AG18" s="45">
-        <f t="shared" si="0"/>
-        <v>43200</v>
-      </c>
-      <c r="AH18" s="39">
-        <v>12</v>
-      </c>
-      <c r="AI18" s="45">
-        <f>$C$18*AH18</f>
-        <v>43200</v>
-      </c>
-      <c r="AJ18" s="39">
-        <v>12</v>
-      </c>
-      <c r="AK18" s="45">
-        <f>$C$18*AJ18</f>
-        <v>43200</v>
-      </c>
-      <c r="AL18" s="39">
-        <v>12</v>
-      </c>
-      <c r="AM18" s="45">
-        <f>$C$18*AL18</f>
-        <v>43200</v>
-      </c>
-      <c r="AN18" s="39">
-        <v>12</v>
-      </c>
-      <c r="AO18" s="45">
-        <f>$C$18*AN18</f>
-        <v>43200</v>
-      </c>
-      <c r="AP18" s="39">
-        <v>12</v>
-      </c>
-      <c r="AQ18" s="45">
-        <f>$C$18*AP18</f>
-        <v>43200</v>
-      </c>
-      <c r="AR18" s="39">
-        <v>12</v>
-      </c>
-      <c r="AS18" s="45">
-        <f>$C$18*AR18</f>
-        <v>43200</v>
-      </c>
-      <c r="AT18" s="39">
-        <v>12</v>
-      </c>
-      <c r="AU18" s="45">
-        <f t="shared" si="2"/>
-        <v>43200</v>
-      </c>
-      <c r="AV18" s="39">
-        <v>12</v>
-      </c>
-      <c r="AW18" s="45">
-        <f>AV18*$C$18</f>
-        <v>43200</v>
-      </c>
-      <c r="AX18" s="39">
-        <v>12</v>
-      </c>
-      <c r="AY18" s="45">
-        <f>AX18*$C$18</f>
-        <v>43200</v>
-      </c>
-      <c r="AZ18" s="39">
-        <v>12</v>
-      </c>
-      <c r="BA18" s="45">
-        <f>AZ18*$C$18</f>
-        <v>43200</v>
-      </c>
-      <c r="BB18" s="39">
-        <v>12</v>
-      </c>
-      <c r="BC18" s="45">
-        <f>BB18*$C$18</f>
-        <v>43200</v>
-      </c>
-      <c r="BD18" s="39">
-        <v>12</v>
-      </c>
-      <c r="BE18" s="45">
-        <f>BD18*$C$18</f>
-        <v>43200</v>
-      </c>
-      <c r="BF18" s="39">
-        <v>12</v>
-      </c>
-      <c r="BG18" s="45">
-        <f>BF18*$C$18</f>
-        <v>43200</v>
-      </c>
-      <c r="BH18" s="45">
-        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="AA18" s="45">
+        <f>Z18*C18</f>
+        <v>216000</v>
+      </c>
+      <c r="AB18" s="45">
+        <f t="shared" si="14"/>
         <v>1209600</v>
       </c>
-      <c r="BI18" s="45">
-        <f t="shared" si="10"/>
+      <c r="AC18" s="45">
+        <f t="shared" si="12"/>
         <v>120960000</v>
       </c>
-      <c r="BJ18" s="50">
-        <f t="shared" si="11"/>
-        <v>38.449900207251076</v>
-      </c>
-      <c r="BK18" s="54">
-        <f>BJ18</f>
-        <v>38.449900207251076</v>
-      </c>
-      <c r="BL18" s="55">
+      <c r="AD18" s="50">
+        <f t="shared" si="13"/>
+        <v>38.449900207251062</v>
+      </c>
+      <c r="AE18" s="54">
+        <f>AD18</f>
+        <v>38.449900207251062</v>
+      </c>
+      <c r="AF18" s="55">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>2</v>
       </c>
@@ -4996,183 +4119,95 @@
         <v>72555.804000000004</v>
       </c>
       <c r="H19" s="38"/>
-      <c r="I19" s="44">
+      <c r="I19" s="45">
         <f>SUM(I5:I18)</f>
-        <v>43337.15</v>
+        <v>543990.71</v>
       </c>
       <c r="J19" s="38"/>
-      <c r="K19" s="44">
+      <c r="K19" s="45">
         <f>SUM(K5:K18)</f>
-        <v>43337.15</v>
+        <v>140849.87</v>
       </c>
       <c r="L19" s="38"/>
-      <c r="M19" s="44">
+      <c r="M19" s="45">
         <f>SUM(M5:M18)</f>
-        <v>43337.15</v>
+        <v>72555.804000000004</v>
       </c>
       <c r="N19" s="38"/>
-      <c r="O19" s="44">
+      <c r="O19" s="45">
         <f>SUM(O5:O18)</f>
-        <v>43337.15</v>
+        <v>639990.71</v>
       </c>
       <c r="P19" s="38"/>
       <c r="Q19" s="45">
         <f>SUM(Q5:Q18)</f>
-        <v>370642.11000000004</v>
+        <v>103013.07</v>
       </c>
       <c r="R19" s="38"/>
       <c r="S19" s="45">
         <f>SUM(S5:S18)</f>
-        <v>140849.87</v>
+        <v>72555.804000000004</v>
       </c>
       <c r="T19" s="38"/>
       <c r="U19" s="45">
         <f>SUM(U5:U18)</f>
+        <v>543990.71</v>
+      </c>
+      <c r="V19" s="38"/>
+      <c r="W19" s="45">
+        <f>SUM(W5:W18)</f>
+        <v>140849.87</v>
+      </c>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="45">
+        <f>SUM(Y5:Y18)</f>
         <v>72555.804000000004</v>
       </c>
-      <c r="V19" s="38"/>
-      <c r="W19" s="44">
-        <f>SUM(W5:W18)</f>
-        <v>43337.15</v>
-      </c>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="44">
-        <f>SUM(Y5:Y18)</f>
-        <v>43337.15</v>
-      </c>
       <c r="Z19" s="38"/>
-      <c r="AA19" s="44">
+      <c r="AA19" s="45">
         <f>SUM(AA5:AA18)</f>
-        <v>43337.15</v>
-      </c>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="44">
-        <f>SUM(AC5:AC18)</f>
-        <v>43337.15</v>
-      </c>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="44">
+        <v>639990.71</v>
+      </c>
+      <c r="AB19" s="44">
+        <f>SUM(D19:AA19)</f>
+        <v>3145911.9360000002</v>
+      </c>
+      <c r="AC19" s="58">
+        <v>100</v>
+      </c>
+      <c r="AD19" s="38">
+        <f>SUM(AD5:AD18)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="AE19" s="51">
         <f>SUM(AE5:AE18)</f>
-        <v>466642.11000000004</v>
-      </c>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="45">
-        <f>SUM(AG5:AG18)</f>
-        <v>103013.07</v>
-      </c>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="45">
-        <f>SUM(AI5:AI18)</f>
-        <v>72555.804000000004</v>
-      </c>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="44">
-        <f>SUM(AK5:AK18)</f>
-        <v>43337.15</v>
-      </c>
-      <c r="AL19" s="38"/>
-      <c r="AM19" s="44">
-        <f>SUM(AM5:AM18)</f>
-        <v>43337.15</v>
-      </c>
-      <c r="AN19" s="38"/>
-      <c r="AO19" s="44">
-        <f>SUM(AO5:AO18)</f>
-        <v>43337.15</v>
-      </c>
-      <c r="AP19" s="38"/>
-      <c r="AQ19" s="44">
-        <f>SUM(AQ5:AQ18)</f>
-        <v>43337.15</v>
-      </c>
-      <c r="AR19" s="38"/>
-      <c r="AS19" s="44">
-        <f>SUM(AS5:AS18)</f>
-        <v>370642.11000000004</v>
-      </c>
-      <c r="AT19" s="38"/>
-      <c r="AU19" s="45">
-        <f>SUM(AU5:AU18)</f>
-        <v>140849.87</v>
-      </c>
-      <c r="AV19" s="38"/>
-      <c r="AW19" s="45">
-        <f>SUM(AW5:AW18)</f>
-        <v>72555.804000000004</v>
-      </c>
-      <c r="AX19" s="38"/>
-      <c r="AY19" s="44">
-        <f>SUM(AY5:AY18)</f>
-        <v>43337.15</v>
-      </c>
-      <c r="AZ19" s="38"/>
-      <c r="BA19" s="44">
-        <f>SUM(BA5:BA18)</f>
-        <v>43337.15</v>
-      </c>
-      <c r="BB19" s="38"/>
-      <c r="BC19" s="44">
-        <f>SUM(BC5:BC18)</f>
-        <v>43337.15</v>
-      </c>
-      <c r="BD19" s="38"/>
-      <c r="BE19" s="44">
-        <f>SUM(BE5:BE18)</f>
-        <v>43337.15</v>
-      </c>
-      <c r="BF19" s="38"/>
-      <c r="BG19" s="44">
-        <f>SUM(BG5:BG18)</f>
-        <v>466642.11000000004</v>
-      </c>
-      <c r="BH19" s="45">
-        <f t="shared" si="9"/>
-        <v>3145911.9359999993</v>
-      </c>
-      <c r="BI19" s="58">
-        <v>100</v>
-      </c>
-      <c r="BJ19" s="38">
-        <f>SUM(BJ5:BJ18)</f>
-        <v>100.00000000000003</v>
-      </c>
-      <c r="BK19" s="51">
-        <f>SUM(BK5:BK18)</f>
-        <v>100.00000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" s="60">
-        <f>((BH19/28)/64)</f>
-        <v>1755.531214285714</v>
-      </c>
-      <c r="BH21" s="61"/>
-    </row>
-    <row r="22" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+        <f>((AB19/28)/64)</f>
+        <v>1755.5312142857144</v>
+      </c>
+      <c r="AB21" s="61"/>
+    </row>
+    <row r="22" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
-      <c r="E22" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="106"/>
-      <c r="T22" s="61"/>
-    </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="E22" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="61"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E23" s="38">
         <v>1</v>
       </c>
@@ -5188,19 +4223,11 @@
         <v>1456000</v>
       </c>
       <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
+      <c r="J23" s="64"/>
       <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="63"/>
-      <c r="BH23" s="61"/>
-    </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="AB23" s="61"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E24" s="38">
         <v>2</v>
       </c>
@@ -5208,27 +4235,19 @@
         <v>65</v>
       </c>
       <c r="G24" s="38">
-        <f t="shared" ref="G24:G26" si="17">350*64</f>
+        <f t="shared" ref="G24:G26" si="15">350*64</f>
         <v>22400</v>
       </c>
       <c r="H24" s="45">
-        <f t="shared" ref="H24:H26" si="18">G24*F24</f>
+        <f t="shared" ref="H24:H26" si="16">G24*F24</f>
         <v>1456000</v>
       </c>
       <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
+      <c r="J24" s="64"/>
       <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="63"/>
-      <c r="AG24" s="61"/>
-    </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="Q24" s="61"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="56"/>
       <c r="E25" s="38">
         <v>3</v>
@@ -5237,27 +4256,19 @@
         <v>65</v>
       </c>
       <c r="G25" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>22400</v>
       </c>
       <c r="H25" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1456000</v>
       </c>
       <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
+      <c r="J25" s="64"/>
       <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="63"/>
-      <c r="AG25" s="61"/>
-    </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="Q25" s="61"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E26" s="65">
         <v>4</v>
       </c>
@@ -5265,73 +4276,49 @@
         <v>65</v>
       </c>
       <c r="G26" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>22400</v>
       </c>
       <c r="H26" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1456000</v>
       </c>
       <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
+      <c r="J26" s="64"/>
       <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="63"/>
-      <c r="AG26" s="61"/>
-    </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="AT27" s="61"/>
-      <c r="AU27" s="61"/>
-    </row>
-    <row r="28" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="E28" s="105" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="AU28" s="61"/>
-      <c r="BH28" s="61"/>
-    </row>
-    <row r="29" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q26" s="61"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+    </row>
+    <row r="28" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+      <c r="E28" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="W28" s="61"/>
+      <c r="AB28" s="61"/>
+    </row>
+    <row r="29" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="E29" s="37" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-    </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E30" s="38">
         <v>64</v>
       </c>
@@ -5345,64 +4332,40 @@
         <f>((E30*F30)*G30)</f>
         <v>137.14534399999999</v>
       </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="BD3:BE3"/>
-    <mergeCell ref="BF3:BG3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="BB3:BC3"/>
-    <mergeCell ref="A1:BG1"/>
-    <mergeCell ref="D2:Q2"/>
-    <mergeCell ref="R2:AE2"/>
-    <mergeCell ref="AF2:AS2"/>
-    <mergeCell ref="AT2:BG2"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV3:AW3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
+  <mergeCells count="31">
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="E22:H22"/>
-    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="I22:K22"/>
     <mergeCell ref="E28:H28"/>
+    <mergeCell ref="N3:O3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="BK11:BK13"/>
-    <mergeCell ref="BK9:BK10"/>
-    <mergeCell ref="BK7:BK8"/>
-    <mergeCell ref="BK5:BK6"/>
-    <mergeCell ref="BL5:BL6"/>
-    <mergeCell ref="BL7:BL8"/>
-    <mergeCell ref="BL9:BL10"/>
-    <mergeCell ref="BL11:BL13"/>
+    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AF11:AF13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5410,7 +4373,6 @@
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000Classificação da informação: Uso Interno</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5418,8 +4380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5429,84 +4391,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="121"/>
-      <c r="AD1" s="122"/>
-      <c r="AE1" s="102" t="s">
-        <v>104</v>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="116"/>
+      <c r="AE1" s="97" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="126" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="129" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y2" s="118"/>
-      <c r="Z2" s="118"/>
-      <c r="AA2" s="118"/>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="118"/>
-      <c r="AD2" s="119"/>
-      <c r="AE2" s="102"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="123" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="111" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="97"/>
     </row>
     <row r="3" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -5599,7 +4561,7 @@
       <c r="AD3" s="23">
         <v>28</v>
       </c>
-      <c r="AE3" s="102"/>
+      <c r="AE3" s="97"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -5703,129 +4665,113 @@
         <v>72555.804000000004</v>
       </c>
       <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
         <f>'Custos Manutenção'!I19</f>
-        <v>43337.15</v>
-      </c>
-      <c r="F6" s="5">
+        <v>543990.71</v>
+      </c>
+      <c r="J6" s="5">
         <f>'Custos Manutenção'!K19</f>
-        <v>43337.15</v>
-      </c>
-      <c r="G6" s="5">
+        <v>140849.87</v>
+      </c>
+      <c r="K6" s="5">
         <f>'Custos Manutenção'!M19</f>
-        <v>43337.15</v>
-      </c>
-      <c r="H6" s="5">
+        <v>72555.804000000004</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
         <f>'Custos Manutenção'!O19</f>
-        <v>43337.15</v>
-      </c>
-      <c r="I6" s="5">
-        <f>'Custos Manutenção'!Q19</f>
-        <v>370642.11000000004</v>
-      </c>
-      <c r="J6" s="5">
+        <v>639990.71</v>
+      </c>
+      <c r="Q6" s="5">
+        <f>('Custos Manutenção'!Q19+'Custos Implantação'!H30)</f>
+        <v>403892.16599999997</v>
+      </c>
+      <c r="R6" s="5">
         <f>'Custos Manutenção'!S19</f>
+        <v>72555.804000000004</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <f>'Custos Manutenção'!U19</f>
+        <v>543990.71</v>
+      </c>
+      <c r="X6" s="5">
+        <f>'Custos Manutenção'!W19</f>
         <v>140849.87</v>
       </c>
-      <c r="K6" s="5">
-        <f>'Custos Manutenção'!U19</f>
+      <c r="Y6" s="5">
+        <f>'Custos Manutenção'!Y19</f>
         <v>72555.804000000004</v>
       </c>
-      <c r="L6" s="5">
-        <f>'Custos Manutenção'!W19</f>
-        <v>43337.15</v>
-      </c>
-      <c r="M6" s="5">
-        <f>'Custos Manutenção'!Y19</f>
-        <v>43337.15</v>
-      </c>
-      <c r="N6" s="5">
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5">
         <f>'Custos Manutenção'!AA19</f>
-        <v>43337.15</v>
-      </c>
-      <c r="O6" s="5">
-        <f>'Custos Manutenção'!AC19</f>
-        <v>43337.15</v>
-      </c>
-      <c r="P6" s="5">
-        <f>'Custos Manutenção'!AE19</f>
-        <v>466642.11000000004</v>
-      </c>
-      <c r="Q6" s="5">
-        <f>('Custos Manutenção'!AG19+'Custos Implantação'!H30)</f>
-        <v>403892.16599999997</v>
-      </c>
-      <c r="R6" s="5">
-        <f>'Custos Manutenção'!AI19</f>
-        <v>72555.804000000004</v>
-      </c>
-      <c r="S6" s="5">
-        <f>'Custos Manutenção'!AK19</f>
-        <v>43337.15</v>
-      </c>
-      <c r="T6" s="5">
-        <f>'Custos Manutenção'!AM19</f>
-        <v>43337.15</v>
-      </c>
-      <c r="U6" s="5">
-        <f>'Custos Manutenção'!AO19</f>
-        <v>43337.15</v>
-      </c>
-      <c r="V6" s="5">
-        <f>'Custos Manutenção'!AQ19</f>
-        <v>43337.15</v>
-      </c>
-      <c r="W6" s="5">
-        <f>'Custos Manutenção'!AS19</f>
-        <v>370642.11000000004</v>
-      </c>
-      <c r="X6" s="5">
-        <f>'Custos Manutenção'!AU19</f>
-        <v>140849.87</v>
-      </c>
-      <c r="Y6" s="5">
-        <f>'Custos Manutenção'!AW19</f>
-        <v>72555.804000000004</v>
-      </c>
-      <c r="Z6" s="5">
-        <f>'Custos Manutenção'!AY19</f>
-        <v>43337.15</v>
-      </c>
-      <c r="AA6" s="5">
-        <f>'Custos Manutenção'!BA19</f>
-        <v>43337.15</v>
-      </c>
-      <c r="AB6" s="5">
-        <f>'Custos Manutenção'!BC19</f>
-        <v>43337.15</v>
-      </c>
-      <c r="AC6" s="5">
-        <f>'Custos Manutenção'!BE19</f>
-        <v>43337.15</v>
-      </c>
-      <c r="AD6" s="5">
-        <f>'Custos Manutenção'!BG19</f>
-        <v>466642.11000000004</v>
+        <v>639990.71</v>
       </c>
       <c r="AE6" s="6">
         <f>SUM(B6:AD6)</f>
-        <v>3446791.0319999992</v>
+        <v>3446791.0320000001</v>
       </c>
       <c r="AF6" s="2">
         <f>AE6-'Custos Implantação'!H30</f>
-        <v>3145911.9359999993</v>
+        <v>3145911.9360000002</v>
       </c>
       <c r="AG6" s="2">
         <f>AF6/28</f>
-        <v>112353.9977142857</v>
+        <v>112353.99771428572</v>
       </c>
       <c r="AH6" s="2">
         <f>AG6/64</f>
-        <v>1755.531214285714</v>
+        <v>1755.5312142857144</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -5836,7 +4782,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5">
         <f>H30</f>
-        <v>99060.083679999996</v>
+        <v>79645.040480000011</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -5846,7 +4792,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5">
         <f>H31</f>
-        <v>88308.083679999996</v>
+        <v>68893.040480000011</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
@@ -5856,7 +4802,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5">
         <f>H32</f>
-        <v>99060.083679999996</v>
+        <v>79645.040480000011</v>
       </c>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
@@ -5866,11 +4812,11 @@
       <c r="AC7" s="5"/>
       <c r="AD7" s="5">
         <f>H33</f>
-        <v>88308.083679999996</v>
+        <v>68893.040480000011</v>
       </c>
       <c r="AE7" s="6">
         <f>SUM(B7:AD7)</f>
-        <v>374736.33471999998</v>
+        <v>297076.16192000004</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -5891,23 +4837,23 @@
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>-43337.15</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>-43337.15</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>-43337.15</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>-43337.15</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5">
         <f>I5-I6-I7</f>
-        <v>986297.80631999986</v>
+        <v>832364.24952000007</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" ref="J8:O8" si="1">-J6</f>
@@ -5919,23 +4865,23 @@
       </c>
       <c r="L8" s="5">
         <f t="shared" si="1"/>
-        <v>-43337.15</v>
+        <v>0</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" si="1"/>
-        <v>-43337.15</v>
+        <v>0</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" si="1"/>
-        <v>-43337.15</v>
+        <v>0</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" si="1"/>
-        <v>-43337.15</v>
+        <v>0</v>
       </c>
       <c r="P8" s="5">
         <f>P5-P6-P7</f>
-        <v>901049.80631999986</v>
+        <v>747116.24952000007</v>
       </c>
       <c r="Q8" s="5">
         <f t="shared" ref="Q8:V8" si="2">-Q6</f>
@@ -5947,23 +4893,23 @@
       </c>
       <c r="S8" s="5">
         <f t="shared" si="2"/>
-        <v>-43337.15</v>
+        <v>0</v>
       </c>
       <c r="T8" s="5">
         <f t="shared" si="2"/>
-        <v>-43337.15</v>
+        <v>0</v>
       </c>
       <c r="U8" s="5">
         <f t="shared" si="2"/>
-        <v>-43337.15</v>
+        <v>0</v>
       </c>
       <c r="V8" s="5">
         <f t="shared" si="2"/>
-        <v>-43337.15</v>
+        <v>0</v>
       </c>
       <c r="W8" s="5">
         <f>W5-W6-W7</f>
-        <v>986297.80631999986</v>
+        <v>832364.24952000007</v>
       </c>
       <c r="X8" s="5">
         <f t="shared" ref="X8:AC8" si="3">-X6</f>
@@ -5975,23 +4921,23 @@
       </c>
       <c r="Z8" s="5">
         <f t="shared" si="3"/>
-        <v>-43337.15</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="5">
         <f t="shared" si="3"/>
-        <v>-43337.15</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="5">
         <f t="shared" si="3"/>
-        <v>-43337.15</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="5">
         <f t="shared" si="3"/>
-        <v>-43337.15</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="5">
         <f>AD5-AD6-AD7</f>
-        <v>901049.80631999986</v>
+        <v>747116.24952000007</v>
       </c>
       <c r="AE8" s="4"/>
     </row>
@@ -6013,113 +4959,113 @@
       </c>
       <c r="E9" s="5">
         <f t="shared" si="4"/>
-        <v>-1543785.1199999996</v>
+        <v>-1500447.9699999997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="4"/>
-        <v>-1587122.2699999996</v>
+        <v>-1500447.9699999997</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="4"/>
-        <v>-1630459.4199999995</v>
+        <v>-1500447.9699999997</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="4"/>
-        <v>-1673796.5699999994</v>
+        <v>-1500447.9699999997</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="4"/>
-        <v>-687498.76367999951</v>
+        <v>-668083.72047999967</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="4"/>
-        <v>-828348.6336799995</v>
+        <v>-808933.59047999966</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" si="4"/>
-        <v>-900904.43767999951</v>
+        <v>-881489.39447999967</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="4"/>
-        <v>-944241.58767999953</v>
+        <v>-881489.39447999967</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" si="4"/>
-        <v>-987578.73767999955</v>
+        <v>-881489.39447999967</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" si="4"/>
-        <v>-1030915.8876799996</v>
+        <v>-881489.39447999967</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" si="4"/>
-        <v>-1074253.0376799996</v>
+        <v>-881489.39447999967</v>
       </c>
       <c r="P9" s="5">
         <f t="shared" ref="P9" si="5">O9+P8</f>
-        <v>-173203.23135999974</v>
+        <v>-134373.1449599996</v>
       </c>
       <c r="Q9" s="5">
         <f t="shared" ref="Q9:AD9" si="6">P9+Q8</f>
-        <v>-577095.39735999971</v>
+        <v>-538265.31095999957</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" si="6"/>
-        <v>-649651.20135999972</v>
+        <v>-610821.11495999957</v>
       </c>
       <c r="S9" s="5">
         <f t="shared" si="6"/>
-        <v>-692988.35135999974</v>
+        <v>-610821.11495999957</v>
       </c>
       <c r="T9" s="5">
         <f t="shared" si="6"/>
-        <v>-736325.50135999976</v>
+        <v>-610821.11495999957</v>
       </c>
       <c r="U9" s="5">
         <f t="shared" si="6"/>
-        <v>-779662.65135999979</v>
+        <v>-610821.11495999957</v>
       </c>
       <c r="V9" s="5">
         <f t="shared" si="6"/>
-        <v>-822999.80135999981</v>
+        <v>-610821.11495999957</v>
       </c>
       <c r="W9" s="5">
         <f t="shared" si="6"/>
-        <v>163298.00496000005</v>
+        <v>221543.1345600005</v>
       </c>
       <c r="X9" s="5">
         <f>W9+X8</f>
-        <v>22448.134960000054</v>
+        <v>80693.264560000505</v>
       </c>
       <c r="Y9" s="5">
         <f t="shared" si="6"/>
-        <v>-50107.66903999995</v>
+        <v>8137.4605600005016</v>
       </c>
       <c r="Z9" s="5">
         <f t="shared" si="6"/>
-        <v>-93444.819039999944</v>
+        <v>8137.4605600005016</v>
       </c>
       <c r="AA9" s="5">
         <f t="shared" si="6"/>
-        <v>-136781.96903999994</v>
+        <v>8137.4605600005016</v>
       </c>
       <c r="AB9" s="5">
         <f t="shared" si="6"/>
-        <v>-180119.11903999993</v>
+        <v>8137.4605600005016</v>
       </c>
       <c r="AC9" s="5">
         <f t="shared" si="6"/>
-        <v>-223456.26903999993</v>
+        <v>8137.4605600005016</v>
       </c>
       <c r="AD9" s="5">
         <f t="shared" si="6"/>
-        <v>677593.53727999993</v>
+        <v>755253.71008000057</v>
       </c>
       <c r="AE9" s="4"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="87" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B10" s="88">
         <f>B4</f>
@@ -6135,115 +5081,115 @@
       </c>
       <c r="E10" s="89">
         <f t="shared" si="7"/>
-        <v>-1262039.9055070989</v>
+        <v>-1226611.9097437072</v>
       </c>
       <c r="F10" s="89">
         <f t="shared" si="7"/>
-        <v>-1213180.3518087936</v>
+        <v>-1146927.3858247797</v>
       </c>
       <c r="G10" s="89">
         <f t="shared" si="7"/>
-        <v>-1165342.8673069929</v>
+        <v>-1072419.4163659448</v>
       </c>
       <c r="H10" s="89">
         <f t="shared" si="7"/>
-        <v>-1118600.8557777628</v>
+        <v>-1002751.7162925047</v>
       </c>
       <c r="I10" s="89">
         <f t="shared" si="7"/>
-        <v>-429608.77236467361</v>
+        <v>-417476.57182090456</v>
       </c>
       <c r="J10" s="89">
         <f t="shared" si="7"/>
-        <v>-483997.50755326659</v>
+        <v>-472653.45248300856</v>
       </c>
       <c r="K10" s="89">
         <f t="shared" si="7"/>
-        <v>-492195.27102081088</v>
+        <v>-481588.16104329407</v>
       </c>
       <c r="L10" s="89">
         <f t="shared" si="7"/>
-        <v>-482359.21588906093</v>
+        <v>-450302.69655946654</v>
       </c>
       <c r="M10" s="89">
         <f t="shared" si="7"/>
-        <v>-471723.95696936129</v>
+        <v>-421049.63313352317</v>
       </c>
       <c r="N10" s="89">
         <f t="shared" si="7"/>
-        <v>-460434.84196326241</v>
+        <v>-393696.93967280647</v>
       </c>
       <c r="O10" s="89">
         <f t="shared" si="7"/>
-        <v>-448621.70689929358</v>
+        <v>-368121.16223500139</v>
       </c>
       <c r="P10" s="89">
         <f t="shared" si="7"/>
-        <v>-67632.965256930314</v>
+        <v>-52470.46589826468</v>
       </c>
       <c r="Q10" s="89">
         <f t="shared" si="7"/>
-        <v>-210706.91804141446</v>
+        <v>-196529.42179026696</v>
       </c>
       <c r="R10" s="89">
         <f t="shared" si="7"/>
-        <v>-221789.08833428202</v>
+        <v>-208532.606325831</v>
       </c>
       <c r="S10" s="89">
         <f t="shared" si="7"/>
-        <v>-221215.01934304382</v>
+        <v>-194985.67976768358</v>
       </c>
       <c r="T10" s="89">
         <f t="shared" si="7"/>
-        <v>-219779.54141105068</v>
+        <v>-182318.80368416119</v>
       </c>
       <c r="U10" s="89">
         <f t="shared" si="7"/>
-        <v>-217596.99683432138</v>
+        <v>-170474.80725983475</v>
       </c>
       <c r="V10" s="89">
         <f t="shared" si="7"/>
-        <v>-214770.50716950267</v>
+        <v>-159400.23367322315</v>
       </c>
       <c r="W10" s="89">
         <f t="shared" si="7"/>
-        <v>39845.982221245598</v>
+        <v>54058.24647446935</v>
       </c>
       <c r="X10" s="89">
         <f t="shared" si="7"/>
-        <v>5121.682686123444</v>
+        <v>18410.674059121575</v>
       </c>
       <c r="Y10" s="89">
         <f t="shared" si="7"/>
-        <v>-10689.695870971171</v>
+        <v>1736.001299102302</v>
       </c>
       <c r="Z10" s="89">
         <f t="shared" si="7"/>
-        <v>-18639.966268646342</v>
+        <v>1623.2252564577218</v>
       </c>
       <c r="AA10" s="89">
         <f t="shared" si="7"/>
-        <v>-25512.175377608619</v>
+        <v>1517.7754962307577</v>
       </c>
       <c r="AB10" s="89">
         <f t="shared" si="7"/>
-        <v>-31412.839849432261</v>
+        <v>1419.1760803338161</v>
       </c>
       <c r="AC10" s="89">
         <f t="shared" si="7"/>
-        <v>-36439.186670168623</v>
+        <v>1326.9819890974461</v>
       </c>
       <c r="AD10" s="89">
         <f t="shared" si="7"/>
-        <v>103317.55792617021</v>
+        <v>115158.96278081076</v>
       </c>
       <c r="AE10" s="135" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="87" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B11" s="88">
         <f>B4</f>
@@ -6259,107 +5205,107 @@
       </c>
       <c r="E11" s="88">
         <f t="shared" si="8"/>
-        <v>-5233883.4893566631</v>
+        <v>-5198455.4935932718</v>
       </c>
       <c r="F11" s="88">
         <f t="shared" si="8"/>
-        <v>-6447063.8411654569</v>
+        <v>-6345382.8794180518</v>
       </c>
       <c r="G11" s="88">
         <f t="shared" si="8"/>
-        <v>-7612406.7084724493</v>
+        <v>-7417802.2957839966</v>
       </c>
       <c r="H11" s="88">
         <f t="shared" si="8"/>
-        <v>-8731007.5642502122</v>
+        <v>-8420554.0120765008</v>
       </c>
       <c r="I11" s="88">
         <f t="shared" si="8"/>
-        <v>-9160616.3366148863</v>
+        <v>-8838030.5838974062</v>
       </c>
       <c r="J11" s="88">
         <f t="shared" si="8"/>
-        <v>-9644613.8441681527</v>
+        <v>-9310684.0363804139</v>
       </c>
       <c r="K11" s="88">
         <f t="shared" si="8"/>
-        <v>-10136809.115188964</v>
+        <v>-9792272.1974237077</v>
       </c>
       <c r="L11" s="88">
         <f t="shared" si="8"/>
-        <v>-10619168.331078025</v>
+        <v>-10242574.893983174</v>
       </c>
       <c r="M11" s="88">
         <f t="shared" si="8"/>
-        <v>-11090892.288047386</v>
+        <v>-10663624.527116697</v>
       </c>
       <c r="N11" s="88">
         <f t="shared" si="8"/>
-        <v>-11551327.13001065</v>
+        <v>-11057321.466789505</v>
       </c>
       <c r="O11" s="88">
         <f t="shared" si="8"/>
-        <v>-11999948.836909942</v>
+        <v>-11425442.629024506</v>
       </c>
       <c r="P11" s="88">
         <f t="shared" si="8"/>
-        <v>-12067581.802166872</v>
+        <v>-11477913.09492277</v>
       </c>
       <c r="Q11" s="88">
         <f t="shared" si="8"/>
-        <v>-12278288.720208285</v>
+        <v>-11674442.516713036</v>
       </c>
       <c r="R11" s="88">
         <f t="shared" si="8"/>
-        <v>-12500077.808542568</v>
+        <v>-11882975.123038867</v>
       </c>
       <c r="S11" s="88">
         <f t="shared" si="8"/>
-        <v>-12721292.827885613</v>
+        <v>-12077960.802806551</v>
       </c>
       <c r="T11" s="88">
         <f t="shared" si="8"/>
-        <v>-12941072.369296664</v>
+        <v>-12260279.606490713</v>
       </c>
       <c r="U11" s="88">
         <f t="shared" si="8"/>
-        <v>-13158669.366130985</v>
+        <v>-12430754.413750548</v>
       </c>
       <c r="V11" s="88">
         <f t="shared" si="8"/>
-        <v>-13373439.873300487</v>
+        <v>-12590154.64742377</v>
       </c>
       <c r="W11" s="88">
         <f t="shared" si="8"/>
-        <v>-13333593.891079241</v>
+        <v>-12536096.400949301</v>
       </c>
       <c r="X11" s="88">
         <f t="shared" si="8"/>
-        <v>-13328472.208393117</v>
+        <v>-12517685.72689018</v>
       </c>
       <c r="Y11" s="88">
         <f t="shared" si="8"/>
-        <v>-13339161.904264089</v>
+        <v>-12515949.725591078</v>
       </c>
       <c r="Z11" s="88">
         <f t="shared" si="8"/>
-        <v>-13357801.870532734</v>
+        <v>-12514326.50033462</v>
       </c>
       <c r="AA11" s="88">
         <f t="shared" si="8"/>
-        <v>-13383314.045910344</v>
+        <v>-12512808.724838389</v>
       </c>
       <c r="AB11" s="88">
         <f t="shared" si="8"/>
-        <v>-13414726.885759776</v>
+        <v>-12511389.548758056</v>
       </c>
       <c r="AC11" s="88">
         <f t="shared" si="8"/>
-        <v>-13451166.072429946</v>
+        <v>-12510062.566768959</v>
       </c>
       <c r="AD11" s="88">
         <f t="shared" si="8"/>
-        <v>-13347848.514503775</v>
+        <v>-12394903.603988148</v>
       </c>
       <c r="AE11" s="136"/>
     </row>
@@ -6430,15 +5376,15 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="69" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B15" s="70">
         <f>SUM(A25:C25)</f>
@@ -6448,14 +5394,14 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B16" s="86">
         <f>(1+B15)/(1+D25)-1</f>
         <v>6.9476520400308051E-2</v>
       </c>
       <c r="C16" s="85" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AC16" s="2"/>
     </row>
@@ -6465,7 +5411,7 @@
       </c>
       <c r="B17" s="45">
         <f>NPV(B15,C8:AD8)+B8</f>
-        <v>-1047731.3736259637</v>
+        <v>-984176.43931265664</v>
       </c>
       <c r="AC17" s="2"/>
     </row>
@@ -6475,7 +5421,7 @@
       </c>
       <c r="B18" s="71">
         <f>IRR(B8:AD8,B15)</f>
-        <v>2.0844647641288683E-2</v>
+        <v>2.4144835598633119E-2</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -6484,7 +5430,7 @@
       </c>
       <c r="B19" s="76">
         <f>V9/(V9-W9)+V3</f>
-        <v>20.834433368995025</v>
+        <v>20.733838719421506</v>
       </c>
       <c r="C19" s="77"/>
       <c r="D19" s="77"/>
@@ -6495,10 +5441,10 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="97" t="s">
-        <v>126</v>
+        <v>118</v>
+      </c>
+      <c r="B20" s="137" t="s">
+        <v>130</v>
       </c>
       <c r="C20" s="77"/>
       <c r="D20" s="77"/>
@@ -6515,27 +5461,27 @@
       <c r="W21" s="2"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="125" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
+      <c r="A23" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
       <c r="D23" s="73" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="74" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J24" s="16"/>
     </row>
@@ -6559,40 +5505,40 @@
       <c r="J26" s="16"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="123" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="123"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="132" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="134"/>
+      <c r="A28" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="128"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H29" s="23" t="s">
         <v>2</v>
@@ -6615,7 +5561,7 @@
       </c>
       <c r="E30" s="6">
         <f>I6</f>
-        <v>370642.11000000004</v>
+        <v>543990.71</v>
       </c>
       <c r="F30" s="24">
         <v>0.112</v>
@@ -6625,7 +5571,7 @@
       </c>
       <c r="H30" s="6">
         <f>((D30-E30)*F30)-G30</f>
-        <v>99060.083679999996</v>
+        <v>79645.040480000011</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
@@ -6645,7 +5591,7 @@
       </c>
       <c r="E31" s="6">
         <f>P6</f>
-        <v>466642.11000000004</v>
+        <v>639990.71</v>
       </c>
       <c r="F31" s="24">
         <v>0.112</v>
@@ -6655,7 +5601,7 @@
       </c>
       <c r="H31" s="6">
         <f>((D31-E31)*F31)-G31</f>
-        <v>88308.083679999996</v>
+        <v>68893.040480000011</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
@@ -6675,7 +5621,7 @@
       </c>
       <c r="E32" s="6">
         <f>W6</f>
-        <v>370642.11000000004</v>
+        <v>543990.71</v>
       </c>
       <c r="F32" s="24">
         <v>0.112</v>
@@ -6685,7 +5631,7 @@
       </c>
       <c r="H32" s="6">
         <f>((D32-E32)*F32)-G32</f>
-        <v>99060.083679999996</v>
+        <v>79645.040480000011</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -6705,7 +5651,7 @@
       </c>
       <c r="E33" s="6">
         <f>AD6</f>
-        <v>466642.11000000004</v>
+        <v>639990.71</v>
       </c>
       <c r="F33" s="24">
         <v>0.112</v>
@@ -6715,7 +5661,7 @@
       </c>
       <c r="H33" s="6">
         <f>((D33-E33)*F33)-G33</f>
-        <v>88308.083679999996</v>
+        <v>68893.040480000011</v>
       </c>
     </row>
   </sheetData>
@@ -6759,180 +5705,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
-      <c r="AO1" s="103"/>
-      <c r="AP1" s="103"/>
-      <c r="AQ1" s="103"/>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
-      <c r="AV1" s="103"/>
-      <c r="AW1" s="103"/>
-      <c r="AX1" s="103"/>
-      <c r="AY1" s="103"/>
-      <c r="AZ1" s="103"/>
-      <c r="BA1" s="103"/>
-      <c r="BB1" s="103"/>
-      <c r="BC1" s="103"/>
-      <c r="BD1" s="103"/>
-      <c r="BE1" s="103"/>
-      <c r="BF1" s="103"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
+      <c r="AF1" s="98"/>
+      <c r="AG1" s="98"/>
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="98"/>
+      <c r="AK1" s="98"/>
+      <c r="AL1" s="98"/>
+      <c r="AM1" s="98"/>
+      <c r="AN1" s="98"/>
+      <c r="AO1" s="98"/>
+      <c r="AP1" s="98"/>
+      <c r="AQ1" s="98"/>
+      <c r="AR1" s="98"/>
+      <c r="AS1" s="98"/>
+      <c r="AT1" s="98"/>
+      <c r="AU1" s="98"/>
+      <c r="AV1" s="98"/>
+      <c r="AW1" s="98"/>
+      <c r="AX1" s="98"/>
+      <c r="AY1" s="98"/>
+      <c r="AZ1" s="98"/>
+      <c r="BA1" s="98"/>
+      <c r="BB1" s="98"/>
+      <c r="BC1" s="98"/>
+      <c r="BD1" s="98"/>
+      <c r="BE1" s="98"/>
+      <c r="BF1" s="98"/>
     </row>
     <row r="2" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="126" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="129" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y2" s="118"/>
-      <c r="Z2" s="118"/>
-      <c r="AA2" s="118"/>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="118"/>
-      <c r="AD2" s="119"/>
-      <c r="AE2" s="137" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF2" s="138"/>
-      <c r="AG2" s="138"/>
-      <c r="AH2" s="138"/>
-      <c r="AI2" s="138"/>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="138"/>
-      <c r="AL2" s="139" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM2" s="139"/>
-      <c r="AN2" s="139"/>
-      <c r="AO2" s="139"/>
-      <c r="AP2" s="139"/>
-      <c r="AQ2" s="139"/>
-      <c r="AR2" s="139"/>
-      <c r="AS2" s="141" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT2" s="141"/>
-      <c r="AU2" s="141"/>
-      <c r="AV2" s="141"/>
-      <c r="AW2" s="141"/>
-      <c r="AX2" s="141"/>
-      <c r="AY2" s="141"/>
-      <c r="AZ2" s="142" t="s">
-        <v>120</v>
-      </c>
-      <c r="BA2" s="142"/>
-      <c r="BB2" s="142"/>
-      <c r="BC2" s="142"/>
-      <c r="BD2" s="142"/>
-      <c r="BE2" s="142"/>
-      <c r="BF2" s="142"/>
-      <c r="BG2" s="137" t="s">
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="123" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="111" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="BH2" s="138"/>
-      <c r="BI2" s="138"/>
-      <c r="BJ2" s="138"/>
-      <c r="BK2" s="138"/>
-      <c r="BL2" s="138"/>
-      <c r="BM2" s="138"/>
-      <c r="BN2" s="139" t="s">
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="131"/>
+      <c r="AH2" s="131"/>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="132" t="s">
         <v>122</v>
       </c>
-      <c r="BO2" s="139"/>
-      <c r="BP2" s="139"/>
-      <c r="BQ2" s="139"/>
-      <c r="BR2" s="139"/>
-      <c r="BS2" s="139"/>
-      <c r="BT2" s="139"/>
-      <c r="BU2" s="141" t="s">
+      <c r="AM2" s="132"/>
+      <c r="AN2" s="132"/>
+      <c r="AO2" s="132"/>
+      <c r="AP2" s="132"/>
+      <c r="AQ2" s="132"/>
+      <c r="AR2" s="132"/>
+      <c r="AS2" s="133" t="s">
         <v>123</v>
       </c>
-      <c r="BV2" s="141"/>
-      <c r="BW2" s="141"/>
-      <c r="BX2" s="141"/>
-      <c r="BY2" s="141"/>
-      <c r="BZ2" s="141"/>
-      <c r="CA2" s="141"/>
-      <c r="CB2" s="142" t="s">
+      <c r="AT2" s="133"/>
+      <c r="AU2" s="133"/>
+      <c r="AV2" s="133"/>
+      <c r="AW2" s="133"/>
+      <c r="AX2" s="133"/>
+      <c r="AY2" s="133"/>
+      <c r="AZ2" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="CC2" s="142"/>
-      <c r="CD2" s="142"/>
-      <c r="CE2" s="142"/>
-      <c r="CF2" s="142"/>
-      <c r="CG2" s="142"/>
-      <c r="CH2" s="142"/>
+      <c r="BA2" s="129"/>
+      <c r="BB2" s="129"/>
+      <c r="BC2" s="129"/>
+      <c r="BD2" s="129"/>
+      <c r="BE2" s="129"/>
+      <c r="BF2" s="129"/>
+      <c r="BG2" s="130" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH2" s="131"/>
+      <c r="BI2" s="131"/>
+      <c r="BJ2" s="131"/>
+      <c r="BK2" s="131"/>
+      <c r="BL2" s="131"/>
+      <c r="BM2" s="131"/>
+      <c r="BN2" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="BO2" s="132"/>
+      <c r="BP2" s="132"/>
+      <c r="BQ2" s="132"/>
+      <c r="BR2" s="132"/>
+      <c r="BS2" s="132"/>
+      <c r="BT2" s="132"/>
+      <c r="BU2" s="133" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV2" s="133"/>
+      <c r="BW2" s="133"/>
+      <c r="BX2" s="133"/>
+      <c r="BY2" s="133"/>
+      <c r="BZ2" s="133"/>
+      <c r="CA2" s="133"/>
+      <c r="CB2" s="129" t="s">
+        <v>128</v>
+      </c>
+      <c r="CC2" s="129"/>
+      <c r="CD2" s="129"/>
+      <c r="CE2" s="129"/>
+      <c r="CF2" s="129"/>
+      <c r="CG2" s="129"/>
+      <c r="CH2" s="129"/>
     </row>
     <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -7431,65 +6377,65 @@
         <v>0</v>
       </c>
       <c r="I6" s="5">
-        <f>'Custos Manutenção'!Q19</f>
-        <v>370642.11000000004</v>
+        <f>'Custos Manutenção'!I19</f>
+        <v>543990.71</v>
       </c>
       <c r="J6" s="5">
+        <f>'Custos Manutenção'!K19</f>
+        <v>140849.87</v>
+      </c>
+      <c r="K6" s="5">
+        <f>'Custos Manutenção'!M19</f>
+        <v>72555.804000000004</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <f>'Custos Manutenção'!O19</f>
+        <v>639990.71</v>
+      </c>
+      <c r="Q6" s="5">
+        <f>('Custos Manutenção'!Q19+'Custos Implantação'!H30)</f>
+        <v>403892.16599999997</v>
+      </c>
+      <c r="R6" s="5">
         <f>'Custos Manutenção'!S19</f>
+        <v>72555.804000000004</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <f>'Custos Manutenção'!U19</f>
+        <v>543990.71</v>
+      </c>
+      <c r="X6" s="5">
+        <f>'Custos Manutenção'!W19</f>
         <v>140849.87</v>
       </c>
-      <c r="K6" s="5">
-        <f>'Custos Manutenção'!U19</f>
+      <c r="Y6" s="5">
+        <f>'Custos Manutenção'!Y19</f>
         <v>72555.804000000004</v>
       </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5" t="e">
-        <f>'Custos Manutenção'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q6" s="5">
-        <f>('Custos Manutenção'!AG19+'Custos Implantação'!H30)</f>
-        <v>403892.16599999997</v>
-      </c>
-      <c r="R6" s="5">
-        <f>'Custos Manutenção'!AI19</f>
-        <v>72555.804000000004</v>
-      </c>
-      <c r="S6" s="5">
-        <v>0</v>
-      </c>
-      <c r="T6" s="5">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5" t="e">
-        <f>'Custos Manutenção'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X6" s="5">
-        <f>'Custos Manutenção'!AU19</f>
-        <v>140849.87</v>
-      </c>
-      <c r="Y6" s="5">
-        <f>'Custos Manutenção'!AW19</f>
-        <v>72555.804000000004</v>
-      </c>
       <c r="Z6" s="5">
         <v>0</v>
       </c>
@@ -7502,9 +6448,9 @@
       <c r="AC6" s="5">
         <v>0</v>
       </c>
-      <c r="AD6" s="5" t="e">
-        <f>'Custos Manutenção'!#REF!</f>
-        <v>#REF!</v>
+      <c r="AD6" s="5">
+        <f>'Custos Manutenção'!AA19</f>
+        <v>639990.71</v>
       </c>
       <c r="AE6" s="91">
         <v>403892.16600000003</v>
@@ -7677,7 +6623,7 @@
     </row>
     <row r="7" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -7688,7 +6634,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5">
         <f>H30</f>
-        <v>99060.083679999996</v>
+        <v>79645.040480000011</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -7696,9 +6642,9 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="5" t="e">
+      <c r="P7" s="5">
         <f>H31</f>
-        <v>#REF!</v>
+        <v>68893.040480000011</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
@@ -7706,9 +6652,9 @@
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="5" t="e">
+      <c r="W7" s="5">
         <f>H32</f>
-        <v>#REF!</v>
+        <v>79645.040480000011</v>
       </c>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
@@ -7716,9 +6662,9 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
-      <c r="AD7" s="5" t="e">
+      <c r="AD7" s="5">
         <f>H33</f>
-        <v>#REF!</v>
+        <v>68893.040480000011</v>
       </c>
       <c r="AE7" s="91"/>
       <c r="AF7" s="91"/>
@@ -7827,7 +6773,7 @@
       </c>
       <c r="I8" s="5">
         <f>I5-I6-I7</f>
-        <v>986297.80631999986</v>
+        <v>832364.24952000007</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" ref="J8:O8" si="1">-J6</f>
@@ -7853,9 +6799,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P8" s="5" t="e">
+      <c r="P8" s="5">
         <f>P5-P6-P7</f>
-        <v>#REF!</v>
+        <v>747116.24952000007</v>
       </c>
       <c r="Q8" s="5">
         <f t="shared" ref="Q8:V8" si="2">-Q6</f>
@@ -7881,9 +6827,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W8" s="5" t="e">
+      <c r="W8" s="5">
         <f>W5-W6-W7</f>
-        <v>#REF!</v>
+        <v>832364.24952000007</v>
       </c>
       <c r="X8" s="5">
         <f t="shared" ref="X8:AC8" si="3">-X6</f>
@@ -7909,9 +6855,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="5" t="e">
+      <c r="AD8" s="5">
         <f>AD5-AD6-AD7</f>
-        <v>#REF!</v>
+        <v>747116.24952000007</v>
       </c>
       <c r="AE8" s="91">
         <f t="shared" ref="AE8:AJ8" si="4">-AE6</f>
@@ -8172,320 +7118,320 @@
       </c>
       <c r="I9" s="5">
         <f t="shared" si="12"/>
-        <v>-514150.16367999988</v>
+        <v>-668083.72047999967</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="12"/>
-        <v>-655000.03367999988</v>
+        <v>-808933.59047999966</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" si="12"/>
-        <v>-727555.83767999988</v>
+        <v>-881489.39447999967</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="12"/>
-        <v>-727555.83767999988</v>
+        <v>-881489.39447999967</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" si="12"/>
-        <v>-727555.83767999988</v>
+        <v>-881489.39447999967</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" si="12"/>
-        <v>-727555.83767999988</v>
+        <v>-881489.39447999967</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" si="12"/>
-        <v>-727555.83767999988</v>
-      </c>
-      <c r="P9" s="5" t="e">
+        <v>-881489.39447999967</v>
+      </c>
+      <c r="P9" s="5">
         <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q9" s="5" t="e">
+        <v>-134373.1449599996</v>
+      </c>
+      <c r="Q9" s="5">
         <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R9" s="5" t="e">
+        <v>-538265.31095999957</v>
+      </c>
+      <c r="R9" s="5">
         <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S9" s="5" t="e">
+        <v>-610821.11495999957</v>
+      </c>
+      <c r="S9" s="5">
         <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T9" s="5" t="e">
+        <v>-610821.11495999957</v>
+      </c>
+      <c r="T9" s="5">
         <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U9" s="5" t="e">
+        <v>-610821.11495999957</v>
+      </c>
+      <c r="U9" s="5">
         <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V9" s="5" t="e">
+        <v>-610821.11495999957</v>
+      </c>
+      <c r="V9" s="5">
         <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W9" s="5" t="e">
+        <v>-610821.11495999957</v>
+      </c>
+      <c r="W9" s="5">
         <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="X9" s="5" t="e">
+        <v>221543.1345600005</v>
+      </c>
+      <c r="X9" s="5">
         <f>W9+X8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y9" s="5" t="e">
+        <v>80693.264560000505</v>
+      </c>
+      <c r="Y9" s="5">
         <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z9" s="5" t="e">
+        <v>8137.4605600005016</v>
+      </c>
+      <c r="Z9" s="5">
         <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA9" s="5" t="e">
+        <v>8137.4605600005016</v>
+      </c>
+      <c r="AA9" s="5">
         <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AB9" s="5" t="e">
+        <v>8137.4605600005016</v>
+      </c>
+      <c r="AB9" s="5">
         <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC9" s="5" t="e">
+        <v>8137.4605600005016</v>
+      </c>
+      <c r="AC9" s="5">
         <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AD9" s="5" t="e">
+        <v>8137.4605600005016</v>
+      </c>
+      <c r="AD9" s="5">
         <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE9" s="5" t="e">
+        <v>755253.71008000057</v>
+      </c>
+      <c r="AE9" s="5">
         <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF9" s="5" t="e">
+        <v>351361.54408000055</v>
+      </c>
+      <c r="AF9" s="5">
         <f t="shared" ref="AF9" si="13">AE9+AF8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AG9" s="5" t="e">
+        <v>278805.74008000054</v>
+      </c>
+      <c r="AG9" s="5">
         <f t="shared" ref="AG9" si="14">AF9+AG8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH9" s="5" t="e">
+        <v>278805.74008000054</v>
+      </c>
+      <c r="AH9" s="5">
         <f t="shared" ref="AH9" si="15">AG9+AH8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI9" s="5" t="e">
+        <v>278805.74008000054</v>
+      </c>
+      <c r="AI9" s="5">
         <f t="shared" ref="AI9" si="16">AH9+AI8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ9" s="5" t="e">
+        <v>278805.74008000054</v>
+      </c>
+      <c r="AJ9" s="5">
         <f t="shared" ref="AJ9" si="17">AI9+AJ8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK9" s="5" t="e">
+        <v>278805.74008000054</v>
+      </c>
+      <c r="AK9" s="5">
         <f t="shared" ref="AK9" si="18">AJ9+AK8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL9" s="5" t="e">
+        <v>1111169.9896000007</v>
+      </c>
+      <c r="AL9" s="5">
         <f t="shared" ref="AL9" si="19">AK9+AL8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AM9" s="5" t="e">
+        <v>970320.11960000067</v>
+      </c>
+      <c r="AM9" s="5">
         <f t="shared" ref="AM9" si="20">AL9+AM8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AN9" s="5" t="e">
+        <v>897764.31560000067</v>
+      </c>
+      <c r="AN9" s="5">
         <f t="shared" ref="AN9" si="21">AM9+AN8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AO9" s="5" t="e">
+        <v>897764.31560000067</v>
+      </c>
+      <c r="AO9" s="5">
         <f t="shared" ref="AO9" si="22">AN9+AO8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AP9" s="5" t="e">
+        <v>897764.31560000067</v>
+      </c>
+      <c r="AP9" s="5">
         <f t="shared" ref="AP9" si="23">AO9+AP8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AQ9" s="5" t="e">
+        <v>897764.31560000067</v>
+      </c>
+      <c r="AQ9" s="5">
         <f t="shared" ref="AQ9" si="24">AP9+AQ8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AR9" s="5" t="e">
+        <v>897764.31560000067</v>
+      </c>
+      <c r="AR9" s="5">
         <f t="shared" ref="AR9" si="25">AQ9+AR8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AS9" s="5" t="e">
+        <v>1644880.5651200009</v>
+      </c>
+      <c r="AS9" s="5">
         <f t="shared" ref="AS9" si="26">AR9+AS8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT9" s="5" t="e">
+        <v>1240988.3991200009</v>
+      </c>
+      <c r="AT9" s="5">
         <f t="shared" ref="AT9" si="27">AS9+AT8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AU9" s="5" t="e">
+        <v>1168432.5951200009</v>
+      </c>
+      <c r="AU9" s="5">
         <f t="shared" ref="AU9" si="28">AT9+AU8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AV9" s="5" t="e">
+        <v>1168432.5951200009</v>
+      </c>
+      <c r="AV9" s="5">
         <f t="shared" ref="AV9" si="29">AU9+AV8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AW9" s="5" t="e">
+        <v>1168432.5951200009</v>
+      </c>
+      <c r="AW9" s="5">
         <f t="shared" ref="AW9" si="30">AV9+AW8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AX9" s="5" t="e">
+        <v>1168432.5951200009</v>
+      </c>
+      <c r="AX9" s="5">
         <f t="shared" ref="AX9" si="31">AW9+AX8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AY9" s="5" t="e">
+        <v>1168432.5951200009</v>
+      </c>
+      <c r="AY9" s="5">
         <f t="shared" ref="AY9" si="32">AX9+AY8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AZ9" s="5" t="e">
+        <v>2000796.844640001</v>
+      </c>
+      <c r="AZ9" s="5">
         <f t="shared" ref="AZ9" si="33">AY9+AZ8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BA9" s="5" t="e">
+        <v>1859946.9746400011</v>
+      </c>
+      <c r="BA9" s="5">
         <f t="shared" ref="BA9" si="34">AZ9+BA8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB9" s="5" t="e">
+        <v>1787391.1706400011</v>
+      </c>
+      <c r="BB9" s="5">
         <f t="shared" ref="BB9" si="35">BA9+BB8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BC9" s="5" t="e">
+        <v>1787391.1706400011</v>
+      </c>
+      <c r="BC9" s="5">
         <f t="shared" ref="BC9" si="36">BB9+BC8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BD9" s="5" t="e">
+        <v>1787391.1706400011</v>
+      </c>
+      <c r="BD9" s="5">
         <f t="shared" ref="BD9" si="37">BC9+BD8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BE9" s="5" t="e">
+        <v>1787391.1706400011</v>
+      </c>
+      <c r="BE9" s="5">
         <f t="shared" ref="BE9" si="38">BD9+BE8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BF9" s="5" t="e">
+        <v>1787391.1706400011</v>
+      </c>
+      <c r="BF9" s="5">
         <f t="shared" ref="BF9" si="39">BE9+BF8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BG9" s="5" t="e">
+        <v>2534507.4201600011</v>
+      </c>
+      <c r="BG9" s="5">
         <f t="shared" ref="BG9" si="40">BF9+BG8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BH9" s="5" t="e">
+        <v>2130615.2541600009</v>
+      </c>
+      <c r="BH9" s="5">
         <f t="shared" ref="BH9" si="41">BG9+BH8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BI9" s="5" t="e">
+        <v>2058059.4501600009</v>
+      </c>
+      <c r="BI9" s="5">
         <f t="shared" ref="BI9" si="42">BH9+BI8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BJ9" s="5" t="e">
+        <v>2058059.4501600009</v>
+      </c>
+      <c r="BJ9" s="5">
         <f t="shared" ref="BJ9" si="43">BI9+BJ8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BK9" s="5" t="e">
+        <v>2058059.4501600009</v>
+      </c>
+      <c r="BK9" s="5">
         <f t="shared" ref="BK9" si="44">BJ9+BK8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BL9" s="5" t="e">
+        <v>2058059.4501600009</v>
+      </c>
+      <c r="BL9" s="5">
         <f t="shared" ref="BL9" si="45">BK9+BL8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BM9" s="5" t="e">
+        <v>2058059.4501600009</v>
+      </c>
+      <c r="BM9" s="5">
         <f t="shared" ref="BM9" si="46">BL9+BM8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BN9" s="5" t="e">
+        <v>2890423.699680001</v>
+      </c>
+      <c r="BN9" s="5">
         <f t="shared" ref="BN9" si="47">BM9+BN8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BO9" s="5" t="e">
+        <v>2749573.8296800009</v>
+      </c>
+      <c r="BO9" s="5">
         <f t="shared" ref="BO9" si="48">BN9+BO8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BP9" s="5" t="e">
+        <v>2677018.0256800009</v>
+      </c>
+      <c r="BP9" s="5">
         <f t="shared" ref="BP9" si="49">BO9+BP8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BQ9" s="5" t="e">
+        <v>2677018.0256800009</v>
+      </c>
+      <c r="BQ9" s="5">
         <f t="shared" ref="BQ9" si="50">BP9+BQ8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BR9" s="5" t="e">
+        <v>2677018.0256800009</v>
+      </c>
+      <c r="BR9" s="5">
         <f t="shared" ref="BR9" si="51">BQ9+BR8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BS9" s="5" t="e">
+        <v>2677018.0256800009</v>
+      </c>
+      <c r="BS9" s="5">
         <f t="shared" ref="BS9" si="52">BR9+BS8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BT9" s="5" t="e">
+        <v>2677018.0256800009</v>
+      </c>
+      <c r="BT9" s="5">
         <f t="shared" ref="BT9" si="53">BS9+BT8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BU9" s="5" t="e">
+        <v>3424134.275200001</v>
+      </c>
+      <c r="BU9" s="5">
         <f t="shared" ref="BU9" si="54">BT9+BU8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BV9" s="5" t="e">
+        <v>3020242.1092000008</v>
+      </c>
+      <c r="BV9" s="5">
         <f t="shared" ref="BV9" si="55">BU9+BV8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BW9" s="5" t="e">
+        <v>2947686.3052000008</v>
+      </c>
+      <c r="BW9" s="5">
         <f t="shared" ref="BW9" si="56">BV9+BW8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BX9" s="5" t="e">
+        <v>2947686.3052000008</v>
+      </c>
+      <c r="BX9" s="5">
         <f t="shared" ref="BX9" si="57">BW9+BX8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BY9" s="5" t="e">
+        <v>2947686.3052000008</v>
+      </c>
+      <c r="BY9" s="5">
         <f t="shared" ref="BY9" si="58">BX9+BY8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BZ9" s="5" t="e">
+        <v>2947686.3052000008</v>
+      </c>
+      <c r="BZ9" s="5">
         <f t="shared" ref="BZ9" si="59">BY9+BZ8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CA9" s="5" t="e">
+        <v>2947686.3052000008</v>
+      </c>
+      <c r="CA9" s="5">
         <f t="shared" ref="CA9" si="60">BZ9+CA8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CB9" s="5" t="e">
+        <v>3780050.5547200008</v>
+      </c>
+      <c r="CB9" s="5">
         <f t="shared" ref="CB9" si="61">CA9+CB8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CC9" s="5" t="e">
+        <v>3639200.6847200007</v>
+      </c>
+      <c r="CC9" s="5">
         <f t="shared" ref="CC9" si="62">CB9+CC8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CD9" s="5" t="e">
+        <v>3566644.8807200007</v>
+      </c>
+      <c r="CD9" s="5">
         <f t="shared" ref="CD9" si="63">CC9+CD8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CE9" s="5" t="e">
+        <v>3566644.8807200007</v>
+      </c>
+      <c r="CE9" s="5">
         <f t="shared" ref="CE9" si="64">CD9+CE8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CF9" s="5" t="e">
+        <v>3566644.8807200007</v>
+      </c>
+      <c r="CF9" s="5">
         <f t="shared" ref="CF9" si="65">CE9+CF8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CG9" s="5" t="e">
+        <v>3566644.8807200007</v>
+      </c>
+      <c r="CG9" s="5">
         <f t="shared" ref="CG9" si="66">CF9+CG8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CH9" s="5" t="e">
+        <v>3566644.8807200007</v>
+      </c>
+      <c r="CH9" s="5">
         <f t="shared" ref="CH9" si="67">CG9+CH8</f>
-        <v>#REF!</v>
+        <v>4313761.1302400008</v>
       </c>
     </row>
     <row r="10" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A10" s="87" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B10" s="88">
         <f>B4</f>
@@ -8517,320 +7463,320 @@
       </c>
       <c r="I10" s="89">
         <f t="shared" si="68"/>
-        <v>-321285.55322387791</v>
+        <v>-417476.57182090456</v>
       </c>
       <c r="J10" s="89">
         <f t="shared" si="68"/>
-        <v>-382711.30156881915</v>
+        <v>-472653.45248300856</v>
       </c>
       <c r="K10" s="89">
         <f t="shared" si="68"/>
-        <v>-397488.93193583901</v>
+        <v>-481588.16104329407</v>
       </c>
       <c r="L10" s="89">
         <f t="shared" si="68"/>
-        <v>-371666.81488908024</v>
+        <v>-450302.69655946654</v>
       </c>
       <c r="M10" s="89">
         <f t="shared" si="68"/>
-        <v>-347522.18286191486</v>
+        <v>-421049.63313352317</v>
       </c>
       <c r="N10" s="89">
         <f t="shared" si="68"/>
-        <v>-324946.06121117674</v>
+        <v>-393696.93967280647</v>
       </c>
       <c r="O10" s="89">
         <f t="shared" si="68"/>
-        <v>-303836.55462538684</v>
-      </c>
-      <c r="P10" s="89" t="e">
+        <v>-368121.16223500139</v>
+      </c>
+      <c r="P10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q10" s="89" t="e">
+        <v>-52470.46589826468</v>
+      </c>
+      <c r="Q10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R10" s="89" t="e">
+        <v>-196529.42179026696</v>
+      </c>
+      <c r="R10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S10" s="89" t="e">
+        <v>-208532.606325831</v>
+      </c>
+      <c r="S10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T10" s="89" t="e">
+        <v>-194985.67976768358</v>
+      </c>
+      <c r="T10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U10" s="89" t="e">
+        <v>-182318.80368416119</v>
+      </c>
+      <c r="U10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V10" s="89" t="e">
+        <v>-170474.80725983475</v>
+      </c>
+      <c r="V10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W10" s="89" t="e">
+        <v>-159400.23367322315</v>
+      </c>
+      <c r="W10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="X10" s="89" t="e">
+        <v>54058.24647446935</v>
+      </c>
+      <c r="X10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y10" s="89" t="e">
+        <v>18410.674059121575</v>
+      </c>
+      <c r="Y10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z10" s="89" t="e">
+        <v>1736.001299102302</v>
+      </c>
+      <c r="Z10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA10" s="89" t="e">
+        <v>1623.2252564577218</v>
+      </c>
+      <c r="AA10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AB10" s="89" t="e">
+        <v>1517.7754962307577</v>
+      </c>
+      <c r="AB10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC10" s="89" t="e">
+        <v>1419.1760803338161</v>
+      </c>
+      <c r="AC10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AD10" s="89" t="e">
+        <v>1326.9819890974461</v>
+      </c>
+      <c r="AD10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE10" s="89" t="e">
+        <v>115158.96278081076</v>
+      </c>
+      <c r="AE10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF10" s="89" t="e">
+        <v>50094.246654400704</v>
+      </c>
+      <c r="AF10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG10" s="89" t="e">
+        <v>37167.562404595723</v>
+      </c>
+      <c r="AG10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AH10" s="89" t="e">
+        <v>34753.041974856824</v>
+      </c>
+      <c r="AH10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AI10" s="89" t="e">
+        <v>32495.376300405973</v>
+      </c>
+      <c r="AI10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ10" s="89" t="e">
+        <v>30384.375608585458</v>
+      </c>
+      <c r="AJ10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AK10" s="89" t="e">
+        <v>28410.512086055434</v>
+      </c>
+      <c r="AK10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AL10" s="89" t="e">
+        <v>105873.33658698251</v>
+      </c>
+      <c r="AL10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AM10" s="89" t="e">
+        <v>86446.990512632445</v>
+      </c>
+      <c r="AM10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AN10" s="89" t="e">
+        <v>74786.968056457335</v>
+      </c>
+      <c r="AN10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AO10" s="89" t="e">
+        <v>69928.574054589204</v>
+      </c>
+      <c r="AO10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AP10" s="89" t="e">
+        <v>65385.796434703174</v>
+      </c>
+      <c r="AP10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AQ10" s="89" t="e">
+        <v>61138.131775187619</v>
+      </c>
+      <c r="AQ10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AR10" s="89" t="e">
+        <v>57166.408620456154</v>
+      </c>
+      <c r="AR10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AS10" s="89" t="e">
+        <v>97935.847328522883</v>
+      </c>
+      <c r="AS10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AT10" s="89" t="e">
+        <v>69088.184933161698</v>
+      </c>
+      <c r="AT10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU10" s="89" t="e">
+        <v>60823.088734988036</v>
+      </c>
+      <c r="AU10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AV10" s="89" t="e">
+        <v>56871.831755803112</v>
+      </c>
+      <c r="AV10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AW10" s="89" t="e">
+        <v>53177.260716781158</v>
+      </c>
+      <c r="AW10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AX10" s="89" t="e">
+        <v>49722.700501060805</v>
+      </c>
+      <c r="AX10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AY10" s="89" t="e">
+        <v>46492.559259224741</v>
+      </c>
+      <c r="AY10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AZ10" s="89" t="e">
+        <v>74440.885227640101</v>
+      </c>
+      <c r="AZ10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BA10" s="89" t="e">
+        <v>64705.000342782543</v>
+      </c>
+      <c r="BA10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BB10" s="89" t="e">
+        <v>58141.420032475893</v>
+      </c>
+      <c r="BB10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BC10" s="89" t="e">
+        <v>54364.372591100349</v>
+      </c>
+      <c r="BC10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BD10" s="89" t="e">
+        <v>50832.69389659122</v>
+      </c>
+      <c r="BD10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BE10" s="89" t="e">
+        <v>47530.444032155465</v>
+      </c>
+      <c r="BE10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BF10" s="89" t="e">
+        <v>44442.718587561598</v>
+      </c>
+      <c r="BF10" s="89">
         <f t="shared" si="68"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BG10" s="89" t="e">
+        <v>58925.506129035326</v>
+      </c>
+      <c r="BG10" s="89">
         <f t="shared" ref="BG10" si="69">PV($B$16,BG3,,-BG9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BH10" s="89" t="e">
+        <v>46317.331699766131</v>
+      </c>
+      <c r="BH10" s="89">
         <f t="shared" ref="BH10" si="70">PV($B$16,BH3,,-BH9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BI10" s="89" t="e">
+        <v>41833.59249301505</v>
+      </c>
+      <c r="BI10" s="89">
         <f t="shared" ref="BI10" si="71">PV($B$16,BI3,,-BI9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BJ10" s="89" t="e">
+        <v>39115.952239284903</v>
+      </c>
+      <c r="BJ10" s="89">
         <f t="shared" ref="BJ10" si="72">PV($B$16,BJ3,,-BJ9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BK10" s="89" t="e">
+        <v>36574.858347188099</v>
+      </c>
+      <c r="BK10" s="89">
         <f t="shared" ref="BK10" si="73">PV($B$16,BK3,,-BK9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BL10" s="89" t="e">
+        <v>34198.841816085907</v>
+      </c>
+      <c r="BL10" s="89">
         <f t="shared" ref="BL10" si="74">PV($B$16,BL3,,-BL9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BM10" s="89" t="e">
+        <v>31977.178707284929</v>
+      </c>
+      <c r="BM10" s="89">
         <f t="shared" ref="BM10" si="75">PV($B$16,BM3,,-BM9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BN10" s="89" t="e">
+        <v>41992.572752198248</v>
+      </c>
+      <c r="BN10" s="89">
         <f t="shared" ref="BN10" si="76">PV($B$16,BN3,,-BN9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BO10" s="89" t="e">
+        <v>37351.246940236553</v>
+      </c>
+      <c r="BO10" s="89">
         <f t="shared" ref="BO10" si="77">PV($B$16,BO3,,-BO9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BP10" s="89" t="e">
+        <v>34003.197700967663</v>
+      </c>
+      <c r="BP10" s="89">
         <f t="shared" ref="BP10" si="78">PV($B$16,BP3,,-BP9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BQ10" s="89" t="e">
+        <v>31794.24424225805</v>
+      </c>
+      <c r="BQ10" s="89">
         <f t="shared" ref="BQ10" si="79">PV($B$16,BQ3,,-BQ9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BR10" s="89" t="e">
+        <v>29728.791269169127</v>
+      </c>
+      <c r="BR10" s="89">
         <f t="shared" ref="BR10" si="80">PV($B$16,BR3,,-BR9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BS10" s="89" t="e">
+        <v>27797.516543927071</v>
+      </c>
+      <c r="BS10" s="89">
         <f t="shared" ref="BS10" si="81">PV($B$16,BS3,,-BS9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BT10" s="89" t="e">
+        <v>25991.703430312227</v>
+      </c>
+      <c r="BT10" s="89">
         <f t="shared" ref="BT10" si="82">PV($B$16,BT3,,-BT9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BU10" s="89" t="e">
+        <v>31085.86667428679</v>
+      </c>
+      <c r="BU10" s="89">
         <f t="shared" ref="BU10" si="83">PV($B$16,BU3,,-BU9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BV10" s="89" t="e">
+        <v>25637.914628814495</v>
+      </c>
+      <c r="BV10" s="89">
         <f t="shared" ref="BV10" si="84">PV($B$16,BV3,,-BV9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BW10" s="89" t="e">
+        <v>23396.502913309989</v>
+      </c>
+      <c r="BW10" s="89">
         <f t="shared" ref="BW10" si="85">PV($B$16,BW3,,-BW9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BX10" s="89" t="e">
+        <v>21876.593330494634</v>
+      </c>
+      <c r="BX10" s="89">
         <f t="shared" ref="BX10" si="86">PV($B$16,BX3,,-BX9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BY10" s="89" t="e">
+        <v>20455.421800476895</v>
+      </c>
+      <c r="BY10" s="89">
         <f t="shared" ref="BY10" si="87">PV($B$16,BY3,,-BY9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BZ10" s="89" t="e">
+        <v>19126.573992312027</v>
+      </c>
+      <c r="BZ10" s="89">
         <f t="shared" ref="BZ10" si="88">PV($B$16,BZ3,,-BZ9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CA10" s="89" t="e">
+        <v>17884.052269939402</v>
+      </c>
+      <c r="CA10" s="89">
         <f t="shared" ref="CA10" si="89">PV($B$16,CA3,,-CA9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CB10" s="89" t="e">
+        <v>21444.257847149471</v>
+      </c>
+      <c r="CB10" s="89">
         <f t="shared" ref="CB10" si="90">PV($B$16,CB3,,-CB9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CC10" s="89" t="e">
+        <v>19304.037988546024</v>
+      </c>
+      <c r="CC10" s="89">
         <f t="shared" ref="CC10" si="91">PV($B$16,CC3,,-CC9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CD10" s="89" t="e">
+        <v>17690.119792081579</v>
+      </c>
+      <c r="CD10" s="89">
         <f t="shared" ref="CD10" si="92">PV($B$16,CD3,,-CD9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CE10" s="89" t="e">
+        <v>16540.914601341705</v>
+      </c>
+      <c r="CE10" s="89">
         <f t="shared" ref="CE10" si="93">PV($B$16,CE3,,-CE9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CF10" s="89" t="e">
+        <v>15466.365353350997</v>
+      </c>
+      <c r="CF10" s="89">
         <f t="shared" ref="CF10" si="94">PV($B$16,CF3,,-CF9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CG10" s="89" t="e">
+        <v>14461.62216591898</v>
+      </c>
+      <c r="CG10" s="89">
         <f t="shared" ref="CG10" si="95">PV($B$16,CG3,,-CG9,)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CH10" s="89" t="e">
+        <v>13522.150220283429</v>
+      </c>
+      <c r="CH10" s="89">
         <f t="shared" ref="CH10" si="96">PV($B$16,CH3,,-CH9,)</f>
-        <v>#REF!</v>
+        <v>15292.226593027153</v>
       </c>
     </row>
     <row r="11" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A11" s="87" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B11" s="88">
         <f>B4</f>
@@ -8862,315 +7808,315 @@
       </c>
       <c r="I11" s="88">
         <f t="shared" si="97"/>
-        <v>-8741839.5653003789</v>
+        <v>-8838030.5838974062</v>
       </c>
       <c r="J11" s="88">
         <f t="shared" si="97"/>
-        <v>-9124550.8668691982</v>
+        <v>-9310684.0363804139</v>
       </c>
       <c r="K11" s="88">
         <f t="shared" si="97"/>
-        <v>-9522039.7988050375</v>
+        <v>-9792272.1974237077</v>
       </c>
       <c r="L11" s="88">
         <f t="shared" si="97"/>
-        <v>-9893706.6136941183</v>
+        <v>-10242574.893983174</v>
       </c>
       <c r="M11" s="88">
         <f t="shared" si="97"/>
-        <v>-10241228.796556033</v>
+        <v>-10663624.527116697</v>
       </c>
       <c r="N11" s="88">
         <f t="shared" si="97"/>
-        <v>-10566174.857767209</v>
+        <v>-11057321.466789505</v>
       </c>
       <c r="O11" s="88">
         <f t="shared" si="97"/>
-        <v>-10870011.412392596</v>
-      </c>
-      <c r="P11" s="88" t="e">
+        <v>-11425442.629024506</v>
+      </c>
+      <c r="P11" s="88">
         <f t="shared" si="97"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q11" s="88" t="e">
+        <v>-11477913.09492277</v>
+      </c>
+      <c r="Q11" s="88">
         <f t="shared" si="97"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R11" s="88" t="e">
+        <v>-11674442.516713036</v>
+      </c>
+      <c r="R11" s="88">
         <f t="shared" si="97"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S11" s="88" t="e">
+        <v>-11882975.123038867</v>
+      </c>
+      <c r="S11" s="88">
         <f t="shared" si="97"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T11" s="88" t="e">
+        <v>-12077960.802806551</v>
+      </c>
+      <c r="T11" s="88">
         <f t="shared" si="97"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U11" s="88" t="e">
+        <v>-12260279.606490713</v>
+      </c>
+      <c r="U11" s="88">
         <f t="shared" si="97"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V11" s="88" t="e">
+        <v>-12430754.413750548</v>
+      </c>
+      <c r="V11" s="88">
         <f t="shared" si="97"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W11" s="88" t="e">
+        <v>-12590154.64742377</v>
+      </c>
+      <c r="W11" s="88">
         <f t="shared" si="97"/>
-        <v>#REF!</v>
-      </c>
-      <c r="X11" s="88" t="e">
+        <v>-12536096.400949301</v>
+      </c>
+      <c r="X11" s="88">
         <f t="shared" si="97"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y11" s="88" t="e">
+        <v>-12517685.72689018</v>
+      </c>
+      <c r="Y11" s="88">
         <f t="shared" si="97"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z11" s="88" t="e">
+        <v>-12515949.725591078</v>
+      </c>
+      <c r="Z11" s="88">
         <f t="shared" si="97"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA11" s="88" t="e">
+        <v>-12514326.50033462</v>
+      </c>
+      <c r="AA11" s="88">
         <f t="shared" si="97"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AB11" s="88" t="e">
+        <v>-12512808.724838389</v>
+      </c>
+      <c r="AB11" s="88">
         <f t="shared" si="97"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC11" s="88" t="e">
+        <v>-12511389.548758056</v>
+      </c>
+      <c r="AC11" s="88">
         <f t="shared" si="97"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AD11" s="88" t="e">
+        <v>-12510062.566768959</v>
+      </c>
+      <c r="AD11" s="88">
         <f t="shared" si="97"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE11" s="88" t="e">
+        <v>-12394903.603988148</v>
+      </c>
+      <c r="AE11" s="88">
         <f t="shared" ref="AE11" si="98">AD11+AE10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AF11" s="88" t="e">
+        <v>-12344809.357333748</v>
+      </c>
+      <c r="AF11" s="88">
         <f t="shared" ref="AF11" si="99">AE11+AF10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AG11" s="88" t="e">
+        <v>-12307641.794929152</v>
+      </c>
+      <c r="AG11" s="88">
         <f t="shared" ref="AG11" si="100">AF11+AG10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH11" s="88" t="e">
+        <v>-12272888.752954295</v>
+      </c>
+      <c r="AH11" s="88">
         <f t="shared" ref="AH11" si="101">AG11+AH10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI11" s="88" t="e">
+        <v>-12240393.376653889</v>
+      </c>
+      <c r="AI11" s="88">
         <f t="shared" ref="AI11" si="102">AH11+AI10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ11" s="88" t="e">
+        <v>-12210009.001045303</v>
+      </c>
+      <c r="AJ11" s="88">
         <f t="shared" ref="AJ11" si="103">AI11+AJ10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK11" s="88" t="e">
+        <v>-12181598.488959247</v>
+      </c>
+      <c r="AK11" s="88">
         <f t="shared" ref="AK11" si="104">AJ11+AK10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL11" s="88" t="e">
+        <v>-12075725.152372265</v>
+      </c>
+      <c r="AL11" s="88">
         <f t="shared" ref="AL11" si="105">AK11+AL10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AM11" s="88" t="e">
+        <v>-11989278.161859633</v>
+      </c>
+      <c r="AM11" s="88">
         <f t="shared" ref="AM11" si="106">AL11+AM10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AN11" s="88" t="e">
+        <v>-11914491.193803176</v>
+      </c>
+      <c r="AN11" s="88">
         <f t="shared" ref="AN11" si="107">AM11+AN10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AO11" s="88" t="e">
+        <v>-11844562.619748587</v>
+      </c>
+      <c r="AO11" s="88">
         <f t="shared" ref="AO11" si="108">AN11+AO10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AP11" s="88" t="e">
+        <v>-11779176.823313884</v>
+      </c>
+      <c r="AP11" s="88">
         <f t="shared" ref="AP11" si="109">AO11+AP10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AQ11" s="88" t="e">
+        <v>-11718038.691538697</v>
+      </c>
+      <c r="AQ11" s="88">
         <f t="shared" ref="AQ11" si="110">AP11+AQ10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AR11" s="88" t="e">
+        <v>-11660872.282918241</v>
+      </c>
+      <c r="AR11" s="88">
         <f t="shared" ref="AR11" si="111">AQ11+AR10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AS11" s="88" t="e">
+        <v>-11562936.435589718</v>
+      </c>
+      <c r="AS11" s="88">
         <f t="shared" ref="AS11" si="112">AR11+AS10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT11" s="88" t="e">
+        <v>-11493848.250656556</v>
+      </c>
+      <c r="AT11" s="88">
         <f t="shared" ref="AT11" si="113">AS11+AT10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AU11" s="88" t="e">
+        <v>-11433025.161921568</v>
+      </c>
+      <c r="AU11" s="88">
         <f t="shared" ref="AU11" si="114">AT11+AU10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AV11" s="88" t="e">
+        <v>-11376153.330165764</v>
+      </c>
+      <c r="AV11" s="88">
         <f t="shared" ref="AV11" si="115">AU11+AV10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AW11" s="88" t="e">
+        <v>-11322976.069448983</v>
+      </c>
+      <c r="AW11" s="88">
         <f t="shared" ref="AW11" si="116">AV11+AW10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AX11" s="88" t="e">
+        <v>-11273253.368947923</v>
+      </c>
+      <c r="AX11" s="88">
         <f t="shared" ref="AX11" si="117">AW11+AX10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AY11" s="88" t="e">
+        <v>-11226760.809688699</v>
+      </c>
+      <c r="AY11" s="88">
         <f t="shared" ref="AY11" si="118">AX11+AY10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AZ11" s="88" t="e">
+        <v>-11152319.924461059</v>
+      </c>
+      <c r="AZ11" s="88">
         <f t="shared" ref="AZ11" si="119">AY11+AZ10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BA11" s="88" t="e">
+        <v>-11087614.924118277</v>
+      </c>
+      <c r="BA11" s="88">
         <f t="shared" ref="BA11" si="120">AZ11+BA10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB11" s="88" t="e">
+        <v>-11029473.504085802</v>
+      </c>
+      <c r="BB11" s="88">
         <f t="shared" ref="BB11" si="121">BA11+BB10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BC11" s="88" t="e">
+        <v>-10975109.131494701</v>
+      </c>
+      <c r="BC11" s="88">
         <f t="shared" ref="BC11" si="122">BB11+BC10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BD11" s="88" t="e">
+        <v>-10924276.437598109</v>
+      </c>
+      <c r="BD11" s="88">
         <f t="shared" ref="BD11" si="123">BC11+BD10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BE11" s="88" t="e">
+        <v>-10876745.993565954</v>
+      </c>
+      <c r="BE11" s="88">
         <f t="shared" ref="BE11" si="124">BD11+BE10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BF11" s="88" t="e">
+        <v>-10832303.274978392</v>
+      </c>
+      <c r="BF11" s="88">
         <f t="shared" ref="BF11" si="125">BE11+BF10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BG11" s="88" t="e">
+        <v>-10773377.768849356</v>
+      </c>
+      <c r="BG11" s="88">
         <f t="shared" ref="BG11" si="126">BF11+BG10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BH11" s="88" t="e">
+        <v>-10727060.43714959</v>
+      </c>
+      <c r="BH11" s="88">
         <f t="shared" ref="BH11" si="127">BG11+BH10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BI11" s="88" t="e">
+        <v>-10685226.844656575</v>
+      </c>
+      <c r="BI11" s="88">
         <f t="shared" ref="BI11" si="128">BH11+BI10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BJ11" s="88" t="e">
+        <v>-10646110.892417291</v>
+      </c>
+      <c r="BJ11" s="88">
         <f t="shared" ref="BJ11" si="129">BI11+BJ10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BK11" s="88" t="e">
+        <v>-10609536.034070102</v>
+      </c>
+      <c r="BK11" s="88">
         <f t="shared" ref="BK11" si="130">BJ11+BK10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BL11" s="88" t="e">
+        <v>-10575337.192254016</v>
+      </c>
+      <c r="BL11" s="88">
         <f t="shared" ref="BL11" si="131">BK11+BL10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BM11" s="88" t="e">
+        <v>-10543360.013546731</v>
+      </c>
+      <c r="BM11" s="88">
         <f t="shared" ref="BM11" si="132">BL11+BM10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BN11" s="88" t="e">
+        <v>-10501367.440794533</v>
+      </c>
+      <c r="BN11" s="88">
         <f t="shared" ref="BN11" si="133">BM11+BN10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BO11" s="88" t="e">
+        <v>-10464016.193854297</v>
+      </c>
+      <c r="BO11" s="88">
         <f t="shared" ref="BO11" si="134">BN11+BO10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BP11" s="88" t="e">
+        <v>-10430012.996153329</v>
+      </c>
+      <c r="BP11" s="88">
         <f t="shared" ref="BP11" si="135">BO11+BP10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BQ11" s="88" t="e">
+        <v>-10398218.75191107</v>
+      </c>
+      <c r="BQ11" s="88">
         <f t="shared" ref="BQ11" si="136">BP11+BQ10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BR11" s="88" t="e">
+        <v>-10368489.960641902</v>
+      </c>
+      <c r="BR11" s="88">
         <f t="shared" ref="BR11" si="137">BQ11+BR10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BS11" s="88" t="e">
+        <v>-10340692.444097975</v>
+      </c>
+      <c r="BS11" s="88">
         <f t="shared" ref="BS11" si="138">BR11+BS10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BT11" s="88" t="e">
+        <v>-10314700.740667664</v>
+      </c>
+      <c r="BT11" s="88">
         <f t="shared" ref="BT11" si="139">BS11+BT10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BU11" s="88" t="e">
+        <v>-10283614.873993376</v>
+      </c>
+      <c r="BU11" s="88">
         <f t="shared" ref="BU11" si="140">BT11+BU10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BV11" s="88" t="e">
+        <v>-10257976.959364561</v>
+      </c>
+      <c r="BV11" s="88">
         <f t="shared" ref="BV11" si="141">BU11+BV10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BW11" s="88" t="e">
+        <v>-10234580.456451252</v>
+      </c>
+      <c r="BW11" s="88">
         <f t="shared" ref="BW11" si="142">BV11+BW10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BX11" s="88" t="e">
+        <v>-10212703.863120757</v>
+      </c>
+      <c r="BX11" s="88">
         <f t="shared" ref="BX11" si="143">BW11+BX10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BY11" s="88" t="e">
+        <v>-10192248.44132028</v>
+      </c>
+      <c r="BY11" s="88">
         <f t="shared" ref="BY11" si="144">BX11+BY10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BZ11" s="88" t="e">
+        <v>-10173121.867327968</v>
+      </c>
+      <c r="BZ11" s="88">
         <f t="shared" ref="BZ11" si="145">BY11+BZ10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CA11" s="88" t="e">
+        <v>-10155237.815058028</v>
+      </c>
+      <c r="CA11" s="88">
         <f t="shared" ref="CA11" si="146">BZ11+CA10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CB11" s="88" t="e">
+        <v>-10133793.557210879</v>
+      </c>
+      <c r="CB11" s="88">
         <f t="shared" ref="CB11" si="147">CA11+CB10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CC11" s="88" t="e">
+        <v>-10114489.519222334</v>
+      </c>
+      <c r="CC11" s="88">
         <f t="shared" ref="CC11" si="148">CB11+CC10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CD11" s="88" t="e">
+        <v>-10096799.399430253</v>
+      </c>
+      <c r="CD11" s="88">
         <f t="shared" ref="CD11" si="149">CC11+CD10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CE11" s="88" t="e">
+        <v>-10080258.484828912</v>
+      </c>
+      <c r="CE11" s="88">
         <f t="shared" ref="CE11" si="150">CD11+CE10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CF11" s="88" t="e">
+        <v>-10064792.11947556</v>
+      </c>
+      <c r="CF11" s="88">
         <f t="shared" ref="CF11" si="151">CE11+CF10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CG11" s="88" t="e">
+        <v>-10050330.497309642</v>
+      </c>
+      <c r="CG11" s="88">
         <f t="shared" ref="CG11" si="152">CF11+CG10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CH11" s="88" t="e">
+        <v>-10036808.347089358</v>
+      </c>
+      <c r="CH11" s="88">
         <f t="shared" ref="CH11" si="153">CG11+CH10</f>
-        <v>#REF!</v>
+        <v>-10021516.120496331</v>
       </c>
     </row>
     <row r="12" spans="1:86" x14ac:dyDescent="0.25">
@@ -9239,15 +8185,15 @@
     </row>
     <row r="14" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A15" s="69" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B15" s="70">
         <f>SUM(A25:C25)</f>
@@ -9258,14 +8204,14 @@
     </row>
     <row r="16" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B16" s="86">
         <f>(1+B15)/(1+D25)-1</f>
         <v>6.9476520400308051E-2</v>
       </c>
       <c r="C16" s="85" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AC16" s="2"/>
     </row>
@@ -9273,9 +8219,9 @@
       <c r="A17" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="45" t="e">
+      <c r="B17" s="45">
         <f>NPV(B15,C8:AD8)+B8</f>
-        <v>#REF!</v>
+        <v>-984176.43931265664</v>
       </c>
       <c r="AC17" s="2"/>
     </row>
@@ -9283,18 +8229,18 @@
       <c r="A18" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="71" t="e">
+      <c r="B18" s="71">
         <f>IRR(B8:AD8,B15)</f>
-        <v>#VALUE!</v>
+        <v>2.4144835598633119E-2</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="76" t="e">
+      <c r="B19" s="76">
         <f>V9/(V9-W9)+V3</f>
-        <v>#REF!</v>
+        <v>20.733838719421506</v>
       </c>
       <c r="C19" s="77"/>
       <c r="D19" s="77"/>
@@ -9305,7 +8251,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B20" s="76"/>
       <c r="C20" s="77"/>
@@ -9323,27 +8269,27 @@
       <c r="W21" s="2"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="125" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
+      <c r="A23" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
       <c r="D23" s="82" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="83" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J24" s="16"/>
     </row>
@@ -9367,40 +8313,40 @@
       <c r="J26" s="16"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="123" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="123"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="132" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="134"/>
+      <c r="A28" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="128"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="82" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B29" s="82" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C29" s="82" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F29" s="82" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G29" s="83" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H29" s="83" t="s">
         <v>2</v>
@@ -9423,7 +8369,7 @@
       </c>
       <c r="E30" s="6">
         <f>I6</f>
-        <v>370642.11000000004</v>
+        <v>543990.71</v>
       </c>
       <c r="F30" s="24">
         <v>0.112</v>
@@ -9433,7 +8379,7 @@
       </c>
       <c r="H30" s="6">
         <f>((D30-E30)*F30)-G30</f>
-        <v>99060.083679999996</v>
+        <v>79645.040480000011</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
@@ -9451,9 +8397,9 @@
         <f t="shared" ref="D31:D33" si="154">C31*B31</f>
         <v>1456000</v>
       </c>
-      <c r="E31" s="6" t="e">
+      <c r="E31" s="6">
         <f>P6</f>
-        <v>#REF!</v>
+        <v>639990.71</v>
       </c>
       <c r="F31" s="24">
         <v>0.112</v>
@@ -9461,9 +8407,9 @@
       <c r="G31" s="5">
         <v>22500</v>
       </c>
-      <c r="H31" s="6" t="e">
+      <c r="H31" s="6">
         <f>((D31-E31)*F31)-G31</f>
-        <v>#REF!</v>
+        <v>68893.040480000011</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
@@ -9481,9 +8427,9 @@
         <f t="shared" si="154"/>
         <v>1456000</v>
       </c>
-      <c r="E32" s="6" t="e">
+      <c r="E32" s="6">
         <f>W6</f>
-        <v>#REF!</v>
+        <v>543990.71</v>
       </c>
       <c r="F32" s="24">
         <v>0.112</v>
@@ -9491,9 +8437,9 @@
       <c r="G32" s="5">
         <v>22500</v>
       </c>
-      <c r="H32" s="6" t="e">
+      <c r="H32" s="6">
         <f>((D32-E32)*F32)-G32</f>
-        <v>#REF!</v>
+        <v>79645.040480000011</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -9511,9 +8457,9 @@
         <f t="shared" si="154"/>
         <v>1456000</v>
       </c>
-      <c r="E33" s="6" t="e">
+      <c r="E33" s="6">
         <f>AD6</f>
-        <v>#REF!</v>
+        <v>639990.71</v>
       </c>
       <c r="F33" s="24">
         <v>0.112</v>
@@ -9521,9 +8467,9 @@
       <c r="G33" s="5">
         <v>22500</v>
       </c>
-      <c r="H33" s="6" t="e">
+      <c r="H33" s="6">
         <f>((D33-E33)*F33)-G33</f>
-        <v>#REF!</v>
+        <v>68893.040480000011</v>
       </c>
     </row>
   </sheetData>
@@ -9533,17 +8479,17 @@
     <mergeCell ref="BN2:BT2"/>
     <mergeCell ref="BU2:CA2"/>
     <mergeCell ref="CB2:CH2"/>
-    <mergeCell ref="AS2:AY2"/>
-    <mergeCell ref="AZ2:BF2"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="AE2:AK2"/>
     <mergeCell ref="AL2:AR2"/>
+    <mergeCell ref="AS2:AY2"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="J2:P2"/>
     <mergeCell ref="Q2:W2"/>
     <mergeCell ref="X2:AD2"/>
+    <mergeCell ref="AZ2:BF2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
